--- a/rootpath_PicWall/app02/tools/project_normalization/workbook.xlsx
+++ b/rootpath_PicWall/app02/tools/project_normalization/workbook.xlsx
@@ -414,7 +414,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -424,11 +424,11 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>214.6675157959514</v>
+        <v>21802.32558139535</v>
       </c>
     </row>
     <row r="4">
@@ -439,7 +439,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -449,11 +449,11 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>171.3296897219319</v>
+        <v>148.808785670706</v>
       </c>
     </row>
     <row r="5">
@@ -464,7 +464,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>A4</t>
+          <t>D1</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -474,11 +474,11 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>A4</t>
+          <t>D1</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>291.2310335789381</v>
+        <v>200.6742655321881</v>
       </c>
     </row>
     <row r="6">
@@ -489,7 +489,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>E1</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -499,11 +499,11 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>E1</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>160.5557369240732</v>
+        <v>278.5618778784727</v>
       </c>
     </row>
     <row r="7">
@@ -514,7 +514,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>A6</t>
+          <t>F1</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -524,11 +524,11 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>A6</t>
+          <t>F1</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>187.9216492003934</v>
+        <v>272.5513532174687</v>
       </c>
     </row>
     <row r="8">
@@ -539,7 +539,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>A7</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -549,11 +549,11 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>A7</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>161.9205941406335</v>
+        <v>132.2337363523765</v>
       </c>
     </row>
     <row r="9">
@@ -564,7 +564,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>A8</t>
+          <t>H1</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -574,11 +574,11 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>A8</t>
+          <t>H1</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>232.628469072045</v>
+        <v>163.0514536037089</v>
       </c>
     </row>
     <row r="10">
@@ -589,7 +589,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>A9</t>
+          <t>I1</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -599,11 +599,11 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>A9</t>
+          <t>I1</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>151.3156899238882</v>
+        <v>142.4224153892168</v>
       </c>
     </row>
     <row r="11">
@@ -614,7 +614,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>A10</t>
+          <t>J1</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -624,11 +624,11 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>A10</t>
+          <t>J1</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>272.2545398444519</v>
+        <v>215.4383092401491</v>
       </c>
     </row>
     <row r="12">
@@ -639,7 +639,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>A11</t>
+          <t>K1</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -649,11 +649,11 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>A11</t>
+          <t>K1</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>173.2141619898843</v>
+        <v>162.2972636681345</v>
       </c>
     </row>
     <row r="13">
@@ -664,7 +664,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>A12</t>
+          <t>L1</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -674,11 +674,11 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>A12</t>
+          <t>L1</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>258.9644873366366</v>
+        <v>172.8797736427497</v>
       </c>
     </row>
     <row r="14">
@@ -689,7 +689,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>A13</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -699,11 +699,11 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>A13</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>184.443993581349</v>
+        <v>175.6275758711128</v>
       </c>
     </row>
     <row r="15">
@@ -714,7 +714,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>A14</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -724,11 +724,11 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>A14</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>171.2954503928376</v>
+        <v>234.9145694015943</v>
       </c>
     </row>
     <row r="16">
@@ -739,7 +739,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>A15</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -749,11 +749,11 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>A15</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>151.9749140075278</v>
+        <v>157.1165962260594</v>
       </c>
     </row>
     <row r="17">
@@ -764,7 +764,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>A16</t>
+          <t>P1</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -774,11 +774,11 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>A16</t>
+          <t>P1</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>146.1019986753419</v>
+        <v>220.2869604805193</v>
       </c>
     </row>
     <row r="18">
@@ -789,7 +789,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>A17</t>
+          <t>A2</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -799,11 +799,11 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>A17</t>
+          <t>A2</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>150.9008782431114</v>
+        <v>214.6675157959514</v>
       </c>
     </row>
     <row r="19">
@@ -814,7 +814,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>A18</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -824,11 +824,11 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>A18</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>191.1972773507705</v>
+        <v>328.044526577074</v>
       </c>
     </row>
     <row r="20">
@@ -839,7 +839,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>A19</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -849,11 +849,11 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>A19</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>171.051281174096</v>
+        <v>207.1665826491081</v>
       </c>
     </row>
     <row r="21">
@@ -864,7 +864,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>A20</t>
+          <t>D2</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -874,11 +874,11 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>A20</t>
+          <t>D2</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>150.8705229172324</v>
+        <v>211.0209192071241</v>
       </c>
     </row>
     <row r="22">
@@ -889,7 +889,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>E2</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -899,11 +899,11 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>E2</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>21802.32558139535</v>
+        <v>268.1060985200543</v>
       </c>
     </row>
     <row r="23">
@@ -914,7 +914,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>F2</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -924,11 +924,11 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>F2</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>328.044526577074</v>
+        <v>204.0316657145189</v>
       </c>
     </row>
     <row r="24">
@@ -939,7 +939,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>B3</t>
+          <t>G2</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -949,11 +949,11 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>B3</t>
+          <t>G2</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>136.7047769205882</v>
+        <v>143.1086051204259</v>
       </c>
     </row>
     <row r="25">
@@ -964,7 +964,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>B4</t>
+          <t>H2</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -974,11 +974,11 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>B4</t>
+          <t>H2</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>239.7200070317869</v>
+        <v>291.1886319958069</v>
       </c>
     </row>
     <row r="26">
@@ -989,7 +989,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>B5</t>
+          <t>I2</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -999,11 +999,11 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>B5</t>
+          <t>I2</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>158.0686123156525</v>
+        <v>186.2763969177466</v>
       </c>
     </row>
     <row r="27">
@@ -1014,7 +1014,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>B6</t>
+          <t>J2</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1024,11 +1024,11 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>B6</t>
+          <t>J2</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>256.0142002543074</v>
+        <v>186.1896900562293</v>
       </c>
     </row>
     <row r="28">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>B7</t>
+          <t>K2</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1049,11 +1049,11 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>B7</t>
+          <t>K2</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>195.5403758286024</v>
+        <v>375.3471961564447</v>
       </c>
     </row>
     <row r="29">
@@ -1064,7 +1064,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>B8</t>
+          <t>L2</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1074,11 +1074,11 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>B8</t>
+          <t>L2</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>177.1207254864916</v>
+        <v>235.986344256879</v>
       </c>
     </row>
     <row r="30">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>B9</t>
+          <t>M2</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1099,11 +1099,11 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>B9</t>
+          <t>M2</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>183.8787381015133</v>
+        <v>188.5476177008503</v>
       </c>
     </row>
     <row r="31">
@@ -1114,7 +1114,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>B10</t>
+          <t>N2</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1124,11 +1124,11 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>B10</t>
+          <t>N2</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>312.7247709291053</v>
+        <v>180.1087857065668</v>
       </c>
     </row>
     <row r="32">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>B11</t>
+          <t>O2</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1149,11 +1149,11 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>B11</t>
+          <t>O2</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>156.7758523380506</v>
+        <v>184.5347571215038</v>
       </c>
     </row>
     <row r="33">
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>B12</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1174,11 +1174,11 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>B12</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>297.2916728602432</v>
+        <v>180.4012122961466</v>
       </c>
     </row>
     <row r="34">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>B13</t>
+          <t>A3</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1199,11 +1199,11 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>B13</t>
+          <t>A3</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>155.7341306920825</v>
+        <v>171.3296897219319</v>
       </c>
     </row>
     <row r="35">
@@ -1214,7 +1214,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>B14</t>
+          <t>B3</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1224,11 +1224,11 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>B14</t>
+          <t>B3</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>214.2229775565727</v>
+        <v>136.7047769205882</v>
       </c>
     </row>
     <row r="36">
@@ -1239,7 +1239,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>B15</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1249,11 +1249,11 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>B15</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>176.0191508836162</v>
+        <v>328.6014721345952</v>
       </c>
     </row>
     <row r="37">
@@ -1264,7 +1264,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>B16</t>
+          <t>D3</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1274,11 +1274,11 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>B16</t>
+          <t>D3</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>206.7810395572129</v>
+        <v>366.9904337826928</v>
       </c>
     </row>
     <row r="38">
@@ -1289,7 +1289,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>B17</t>
+          <t>E3</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1299,11 +1299,11 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>B17</t>
+          <t>E3</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>191.0815854676085</v>
+        <v>168.0051073552636</v>
       </c>
     </row>
     <row r="39">
@@ -1314,7 +1314,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>B18</t>
+          <t>F3</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1324,11 +1324,11 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>B18</t>
+          <t>F3</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>229.1370697951514</v>
+        <v>143.6121323529412</v>
       </c>
     </row>
     <row r="40">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>B19</t>
+          <t>G3</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1349,11 +1349,11 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>B19</t>
+          <t>G3</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>171.2172404346635</v>
+        <v>198.3457960608525</v>
       </c>
     </row>
     <row r="41">
@@ -1364,7 +1364,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>B20</t>
+          <t>H3</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1374,11 +1374,11 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>B20</t>
+          <t>H3</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>215.1447565637079</v>
+        <v>150.7681637945331</v>
       </c>
     </row>
     <row r="42">
@@ -1389,7 +1389,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>I3</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1399,11 +1399,11 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>I3</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>148.808785670706</v>
+        <v>158.3272201434445</v>
       </c>
     </row>
     <row r="43">
@@ -1414,7 +1414,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>J3</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1424,11 +1424,11 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>J3</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>207.1665826491081</v>
+        <v>208.7014595188735</v>
       </c>
     </row>
     <row r="44">
@@ -1439,7 +1439,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>K3</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1449,11 +1449,11 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>K3</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>328.6014721345952</v>
+        <v>139.6479010920466</v>
       </c>
     </row>
     <row r="45">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>C4</t>
+          <t>L3</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1474,11 +1474,11 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>C4</t>
+          <t>L3</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>211.8703918189779</v>
+        <v>166.2409052371427</v>
       </c>
     </row>
     <row r="46">
@@ -1489,7 +1489,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>C5</t>
+          <t>M3</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1499,11 +1499,11 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>C5</t>
+          <t>M3</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>149.2975550037076</v>
+        <v>208.2089862998487</v>
       </c>
     </row>
     <row r="47">
@@ -1514,7 +1514,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>C6</t>
+          <t>N3</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1524,11 +1524,11 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>C6</t>
+          <t>N3</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>161.1984567934403</v>
+        <v>175.4016698238967</v>
       </c>
     </row>
     <row r="48">
@@ -1539,7 +1539,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>C7</t>
+          <t>O3</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1549,11 +1549,11 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>C7</t>
+          <t>O3</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>195.6232556926367</v>
+        <v>147.4049360999602</v>
       </c>
     </row>
     <row r="49">
@@ -1564,7 +1564,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>C8</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1574,11 +1574,11 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>C8</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>195.9938849907883</v>
+        <v>227.4346883386654</v>
       </c>
     </row>
     <row r="50">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>C9</t>
+          <t>A4</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1599,11 +1599,11 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>C9</t>
+          <t>A4</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>253.944606216564</v>
+        <v>291.2310335789381</v>
       </c>
     </row>
     <row r="51">
@@ -1614,7 +1614,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>C10</t>
+          <t>B4</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1624,11 +1624,11 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>C10</t>
+          <t>B4</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>290.0063801403631</v>
+        <v>239.7200070317869</v>
       </c>
     </row>
     <row r="52">
@@ -1639,7 +1639,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>C11</t>
+          <t>C4</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1649,11 +1649,11 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>C11</t>
+          <t>C4</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>155.5040664313372</v>
+        <v>211.8703918189779</v>
       </c>
     </row>
     <row r="53">
@@ -1664,7 +1664,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>C12</t>
+          <t>D4</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1674,11 +1674,11 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>C12</t>
+          <t>D4</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>175.6070149148892</v>
+        <v>223.7620365328818</v>
       </c>
     </row>
     <row r="54">
@@ -1689,7 +1689,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>C13</t>
+          <t>E4</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1699,11 +1699,11 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>C13</t>
+          <t>E4</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>214.882781442723</v>
+        <v>188.2577373930068</v>
       </c>
     </row>
     <row r="55">
@@ -1714,7 +1714,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>C14</t>
+          <t>F4</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1724,11 +1724,11 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>C14</t>
+          <t>F4</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>442.1452889419463</v>
+        <v>204.1288461276758</v>
       </c>
     </row>
     <row r="56">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>C15</t>
+          <t>G4</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1749,11 +1749,11 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>C15</t>
+          <t>G4</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>165.8640688667614</v>
+        <v>214.4680120959959</v>
       </c>
     </row>
     <row r="57">
@@ -1764,7 +1764,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>C16</t>
+          <t>H4</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1774,11 +1774,11 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>C16</t>
+          <t>H4</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>283.7926043647302</v>
+        <v>252.3213564796125</v>
       </c>
     </row>
     <row r="58">
@@ -1789,7 +1789,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>C17</t>
+          <t>I4</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -1799,11 +1799,11 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>C17</t>
+          <t>I4</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>228.3348301949979</v>
+        <v>159.2644107747683</v>
       </c>
     </row>
     <row r="59">
@@ -1814,7 +1814,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>C18</t>
+          <t>J4</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -1824,11 +1824,11 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>C18</t>
+          <t>J4</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>247.0437102671366</v>
+        <v>232.5473233803079</v>
       </c>
     </row>
     <row r="60">
@@ -1839,7 +1839,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>C19</t>
+          <t>K4</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1849,11 +1849,11 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>C19</t>
+          <t>K4</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>193.1172994476845</v>
+        <v>185.4072160488486</v>
       </c>
     </row>
     <row r="61">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>C20</t>
+          <t>L4</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -1874,11 +1874,11 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>C20</t>
+          <t>L4</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>173.2241636159967</v>
+        <v>348.4684810258912</v>
       </c>
     </row>
     <row r="62">
@@ -1889,7 +1889,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>D1</t>
+          <t>M4</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -1899,11 +1899,11 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>D1</t>
+          <t>M4</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>200.6742655321881</v>
+        <v>185.0184401712038</v>
       </c>
     </row>
     <row r="63">
@@ -1914,7 +1914,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>D2</t>
+          <t>N4</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -1924,11 +1924,11 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>D2</t>
+          <t>N4</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>211.0209192071241</v>
+        <v>343.8947223623275</v>
       </c>
     </row>
     <row r="64">
@@ -1939,7 +1939,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>D3</t>
+          <t>O4</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -1949,11 +1949,11 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>D3</t>
+          <t>O4</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>366.9904337826928</v>
+        <v>177.6924853847931</v>
       </c>
     </row>
     <row r="65">
@@ -1964,7 +1964,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>D4</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -1974,11 +1974,11 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>D4</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>223.7620365328818</v>
+        <v>168.2217835994976</v>
       </c>
     </row>
     <row r="66">
@@ -1989,7 +1989,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>D5</t>
+          <t>A5</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -1999,11 +1999,11 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>D5</t>
+          <t>A5</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>161.7329142653822</v>
+        <v>160.5557369240732</v>
       </c>
     </row>
     <row r="67">
@@ -2014,7 +2014,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>D6</t>
+          <t>B5</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2024,11 +2024,11 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>D6</t>
+          <t>B5</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>179.6880615251923</v>
+        <v>158.0686123156525</v>
       </c>
     </row>
     <row r="68">
@@ -2039,7 +2039,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>D7</t>
+          <t>C5</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2049,11 +2049,11 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>D7</t>
+          <t>C5</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>166.9950903443439</v>
+        <v>149.2975550037076</v>
       </c>
     </row>
     <row r="69">
@@ -2064,7 +2064,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>D8</t>
+          <t>D5</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2074,11 +2074,11 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>D8</t>
+          <t>D5</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>196.2503107296587</v>
+        <v>161.7329142653822</v>
       </c>
     </row>
     <row r="70">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>D9</t>
+          <t>E5</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2099,11 +2099,11 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>D9</t>
+          <t>E5</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>201.8896874747638</v>
+        <v>219.6740037783929</v>
       </c>
     </row>
     <row r="71">
@@ -2114,7 +2114,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>D10</t>
+          <t>F5</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2124,11 +2124,11 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>D10</t>
+          <t>F5</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>256.16722596511</v>
+        <v>209.2181517668473</v>
       </c>
     </row>
     <row r="72">
@@ -2139,7 +2139,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>D11</t>
+          <t>G5</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2149,11 +2149,11 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>D11</t>
+          <t>G5</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>152.1753465793518</v>
+        <v>148.1291290994737</v>
       </c>
     </row>
     <row r="73">
@@ -2164,7 +2164,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>D12</t>
+          <t>H5</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2174,11 +2174,11 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>D12</t>
+          <t>H5</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>172.1209895809428</v>
+        <v>181.1528567805514</v>
       </c>
     </row>
     <row r="74">
@@ -2189,7 +2189,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>D13</t>
+          <t>I5</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2199,11 +2199,11 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>D13</t>
+          <t>I5</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>166.6009518467716</v>
+        <v>160.7837672708563</v>
       </c>
     </row>
     <row r="75">
@@ -2214,7 +2214,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>D14</t>
+          <t>J5</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2224,11 +2224,11 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>D14</t>
+          <t>J5</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>215.6473734149918</v>
+        <v>4215.851602023608</v>
       </c>
     </row>
     <row r="76">
@@ -2239,7 +2239,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>D15</t>
+          <t>K5</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2249,11 +2249,11 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>D15</t>
+          <t>K5</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>184.002796842512</v>
+        <v>236.5911940757565</v>
       </c>
     </row>
     <row r="77">
@@ -2264,7 +2264,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>D16</t>
+          <t>L5</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2274,11 +2274,11 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>D16</t>
+          <t>L5</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>198.0381025309269</v>
+        <v>714.183688044565</v>
       </c>
     </row>
     <row r="78">
@@ -2289,7 +2289,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>D17</t>
+          <t>M5</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2299,11 +2299,11 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>D17</t>
+          <t>M5</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>193.4472952843998</v>
+        <v>155.2827180686971</v>
       </c>
     </row>
     <row r="79">
@@ -2314,7 +2314,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>D18</t>
+          <t>N5</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2324,11 +2324,11 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>D18</t>
+          <t>N5</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>197.953164281331</v>
+        <v>161.9380748801659</v>
       </c>
     </row>
     <row r="80">
@@ -2339,7 +2339,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>D19</t>
+          <t>O5</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2349,11 +2349,11 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>D19</t>
+          <t>O5</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>223.5119690659435</v>
+        <v>215.973392078096</v>
       </c>
     </row>
     <row r="81">
@@ -2364,7 +2364,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>D20</t>
+          <t>P5</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -2374,11 +2374,11 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>D20</t>
+          <t>P5</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>251.1174727537542</v>
+        <v>274.0702167895415</v>
       </c>
     </row>
     <row r="82">
@@ -2389,7 +2389,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>E1</t>
+          <t>A6</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -2399,11 +2399,11 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>E1</t>
+          <t>A6</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>278.5618778784727</v>
+        <v>187.9216492003934</v>
       </c>
     </row>
     <row r="83">
@@ -2414,7 +2414,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>E2</t>
+          <t>B6</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -2424,11 +2424,11 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>E2</t>
+          <t>B6</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>268.1060985200543</v>
+        <v>256.0142002543074</v>
       </c>
     </row>
     <row r="84">
@@ -2439,7 +2439,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>E3</t>
+          <t>C6</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -2449,11 +2449,11 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>E3</t>
+          <t>C6</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>168.0051073552636</v>
+        <v>161.1984567934403</v>
       </c>
     </row>
     <row r="85">
@@ -2464,7 +2464,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>E4</t>
+          <t>D6</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -2474,11 +2474,11 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>E4</t>
+          <t>D6</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>188.2577373930068</v>
+        <v>179.6880615251923</v>
       </c>
     </row>
     <row r="86">
@@ -2489,7 +2489,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>E5</t>
+          <t>E6</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -2499,11 +2499,11 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>E5</t>
+          <t>E6</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>219.6740037783929</v>
+        <v>201.8149894719847</v>
       </c>
     </row>
     <row r="87">
@@ -2514,7 +2514,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>E6</t>
+          <t>F6</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -2524,11 +2524,11 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>E6</t>
+          <t>F6</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>201.8149894719847</v>
+        <v>1304.291117777488</v>
       </c>
     </row>
     <row r="88">
@@ -2539,7 +2539,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>E7</t>
+          <t>G6</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -2549,11 +2549,11 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>E7</t>
+          <t>G6</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>153.2559220642551</v>
+        <v>196.4752342967169</v>
       </c>
     </row>
     <row r="89">
@@ -2564,7 +2564,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>E8</t>
+          <t>H6</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -2574,11 +2574,11 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>E8</t>
+          <t>H6</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>209.0067996878832</v>
+        <v>23696.68246445498</v>
       </c>
     </row>
     <row r="90">
@@ -2589,7 +2589,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>E9</t>
+          <t>I6</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -2599,11 +2599,11 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>E9</t>
+          <t>I6</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>194.507118960554</v>
+        <v>192.5347846177543</v>
       </c>
     </row>
     <row r="91">
@@ -2614,7 +2614,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>E10</t>
+          <t>J6</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -2624,11 +2624,11 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>E10</t>
+          <t>J6</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>203.2093530491564</v>
+        <v>192.4174689406135</v>
       </c>
     </row>
     <row r="92">
@@ -2639,7 +2639,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>E11</t>
+          <t>K6</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -2649,11 +2649,11 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>E11</t>
+          <t>K6</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>158.6915353935021</v>
+        <v>179.774203600278</v>
       </c>
     </row>
     <row r="93">
@@ -2664,7 +2664,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>E12</t>
+          <t>L6</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -2674,11 +2674,11 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>E12</t>
+          <t>L6</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>250.6035368512501</v>
+        <v>195.0635907305782</v>
       </c>
     </row>
     <row r="94">
@@ -2689,7 +2689,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>E13</t>
+          <t>M6</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -2699,11 +2699,11 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>E13</t>
+          <t>M6</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>331.1404477018853</v>
+        <v>349.3815945775976</v>
       </c>
     </row>
     <row r="95">
@@ -2714,7 +2714,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>E14</t>
+          <t>N6</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -2724,11 +2724,11 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>E14</t>
+          <t>N6</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>166.3054143499399</v>
+        <v>191.7472004908728</v>
       </c>
     </row>
     <row r="96">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>E15</t>
+          <t>O6</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -2749,11 +2749,11 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>E15</t>
+          <t>O6</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>159.2855512076499</v>
+        <v>182.3253778693456</v>
       </c>
     </row>
     <row r="97">
@@ -2764,7 +2764,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>E16</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -2774,11 +2774,11 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>E16</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="E97" t="n">
-        <v>255.7413943020817</v>
+        <v>155.0980736819249</v>
       </c>
     </row>
     <row r="98">
@@ -2789,7 +2789,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>E17</t>
+          <t>A7</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -2799,11 +2799,11 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>E17</t>
+          <t>A7</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>174.1391720262834</v>
+        <v>161.9205941406335</v>
       </c>
     </row>
     <row r="99">
@@ -2814,7 +2814,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>E18</t>
+          <t>B7</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -2824,11 +2824,11 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>E18</t>
+          <t>B7</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>174.0381491622964</v>
+        <v>195.5403758286024</v>
       </c>
     </row>
     <row r="100">
@@ -2839,7 +2839,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>E19</t>
+          <t>C7</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -2849,11 +2849,11 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>E19</t>
+          <t>C7</t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>138.5290980370427</v>
+        <v>195.6232556926367</v>
       </c>
     </row>
     <row r="101">
@@ -2864,7 +2864,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>E20</t>
+          <t>D7</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -2874,11 +2874,11 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>E20</t>
+          <t>D7</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>268.0342369065275</v>
+        <v>166.9950903443439</v>
       </c>
     </row>
     <row r="102">
@@ -2889,7 +2889,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>F1</t>
+          <t>E7</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -2899,11 +2899,11 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>F1</t>
+          <t>E7</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>272.5513532174687</v>
+        <v>153.2559220642551</v>
       </c>
     </row>
     <row r="103">
@@ -2914,7 +2914,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>F2</t>
+          <t>F7</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -2924,11 +2924,11 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>F2</t>
+          <t>F7</t>
         </is>
       </c>
       <c r="E103" t="n">
-        <v>204.0316657145189</v>
+        <v>292.4803306977605</v>
       </c>
     </row>
     <row r="104">
@@ -2939,7 +2939,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>F3</t>
+          <t>G7</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -2949,11 +2949,11 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>F3</t>
+          <t>G7</t>
         </is>
       </c>
       <c r="E104" t="n">
-        <v>143.6121323529412</v>
+        <v>5718.64277544796</v>
       </c>
     </row>
     <row r="105">
@@ -2964,7 +2964,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>F4</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -2974,11 +2974,11 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>F4</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="E105" t="n">
-        <v>204.1288461276758</v>
+        <v>163.0470227613644</v>
       </c>
     </row>
     <row r="106">
@@ -2989,7 +2989,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>F5</t>
+          <t>I7</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -2999,11 +2999,11 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>F5</t>
+          <t>I7</t>
         </is>
       </c>
       <c r="E106" t="n">
-        <v>209.2181517668473</v>
+        <v>178.1673704277799</v>
       </c>
     </row>
     <row r="107">
@@ -3014,7 +3014,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>F6</t>
+          <t>J7</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -3024,11 +3024,11 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>F6</t>
+          <t>J7</t>
         </is>
       </c>
       <c r="E107" t="n">
-        <v>1304.291117777488</v>
+        <v>182.4418010654601</v>
       </c>
     </row>
     <row r="108">
@@ -3039,7 +3039,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>F7</t>
+          <t>K7</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -3049,11 +3049,11 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>F7</t>
+          <t>K7</t>
         </is>
       </c>
       <c r="E108" t="n">
-        <v>292.4803306977605</v>
+        <v>242.0701842154102</v>
       </c>
     </row>
     <row r="109">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>F8</t>
+          <t>L7</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -3074,11 +3074,11 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>F8</t>
+          <t>L7</t>
         </is>
       </c>
       <c r="E109" t="n">
-        <v>295.0839021895225</v>
+        <v>171.9729887758963</v>
       </c>
     </row>
     <row r="110">
@@ -3089,7 +3089,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>F9</t>
+          <t>M7</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -3099,11 +3099,11 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>F9</t>
+          <t>M7</t>
         </is>
       </c>
       <c r="E110" t="n">
-        <v>2573.781743308167</v>
+        <v>179.0980621589675</v>
       </c>
     </row>
     <row r="111">
@@ -3114,7 +3114,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>F10</t>
+          <t>N7</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -3124,11 +3124,11 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>F10</t>
+          <t>N7</t>
         </is>
       </c>
       <c r="E111" t="n">
-        <v>482.1135859608524</v>
+        <v>163.197806621479</v>
       </c>
     </row>
     <row r="112">
@@ -3139,7 +3139,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>F11</t>
+          <t>O7</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -3149,11 +3149,11 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>F11</t>
+          <t>O7</t>
         </is>
       </c>
       <c r="E112" t="n">
-        <v>160.521373420871</v>
+        <v>152.8849387950629</v>
       </c>
     </row>
     <row r="113">
@@ -3164,7 +3164,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>F12</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -3174,11 +3174,11 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>F12</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="E113" t="n">
-        <v>190.595993672213</v>
+        <v>1602.906603975209</v>
       </c>
     </row>
     <row r="114">
@@ -3189,7 +3189,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>F13</t>
+          <t>A8</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -3199,11 +3199,11 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>F13</t>
+          <t>A8</t>
         </is>
       </c>
       <c r="E114" t="n">
-        <v>186.8623322910568</v>
+        <v>232.628469072045</v>
       </c>
     </row>
     <row r="115">
@@ -3214,7 +3214,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>F14</t>
+          <t>B8</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -3224,11 +3224,11 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>F14</t>
+          <t>B8</t>
         </is>
       </c>
       <c r="E115" t="n">
-        <v>204.2122173362558</v>
+        <v>177.1207254864916</v>
       </c>
     </row>
     <row r="116">
@@ -3239,7 +3239,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>F15</t>
+          <t>C8</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -3249,11 +3249,11 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>F15</t>
+          <t>C8</t>
         </is>
       </c>
       <c r="E116" t="n">
-        <v>147.5317931014134</v>
+        <v>195.9938849907883</v>
       </c>
     </row>
     <row r="117">
@@ -3264,7 +3264,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>F16</t>
+          <t>D8</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -3274,11 +3274,11 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>F16</t>
+          <t>D8</t>
         </is>
       </c>
       <c r="E117" t="n">
-        <v>237.4902035291044</v>
+        <v>196.2503107296587</v>
       </c>
     </row>
     <row r="118">
@@ -3289,7 +3289,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>F17</t>
+          <t>E8</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -3299,11 +3299,11 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>F17</t>
+          <t>E8</t>
         </is>
       </c>
       <c r="E118" t="n">
-        <v>222.9554980825827</v>
+        <v>209.0067996878832</v>
       </c>
     </row>
     <row r="119">
@@ -3314,7 +3314,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>F18</t>
+          <t>F8</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -3324,11 +3324,11 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>F18</t>
+          <t>F8</t>
         </is>
       </c>
       <c r="E119" t="n">
-        <v>154.3003507761308</v>
+        <v>295.0839021895225</v>
       </c>
     </row>
     <row r="120">
@@ -3339,7 +3339,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>F19</t>
+          <t>G8</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -3349,11 +3349,11 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>F19</t>
+          <t>G8</t>
         </is>
       </c>
       <c r="E120" t="n">
-        <v>213.8640964954804</v>
+        <v>248.1163831247777</v>
       </c>
     </row>
     <row r="121">
@@ -3364,7 +3364,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>F20</t>
+          <t>H8</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -3374,11 +3374,11 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>F20</t>
+          <t>H8</t>
         </is>
       </c>
       <c r="E121" t="n">
-        <v>171.4716843091977</v>
+        <v>275.9102739789021</v>
       </c>
     </row>
     <row r="122">
@@ -3389,7 +3389,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>G1</t>
+          <t>I8</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -3399,11 +3399,11 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>G1</t>
+          <t>I8</t>
         </is>
       </c>
       <c r="E122" t="n">
-        <v>132.2337363523765</v>
+        <v>190.6504995043087</v>
       </c>
     </row>
     <row r="123">
@@ -3414,7 +3414,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>G2</t>
+          <t>J8</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -3424,11 +3424,11 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>G2</t>
+          <t>J8</t>
         </is>
       </c>
       <c r="E123" t="n">
-        <v>143.1086051204259</v>
+        <v>183.3617544052661</v>
       </c>
     </row>
     <row r="124">
@@ -3439,7 +3439,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>G3</t>
+          <t>K8</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -3449,11 +3449,11 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>G3</t>
+          <t>K8</t>
         </is>
       </c>
       <c r="E124" t="n">
-        <v>198.3457960608525</v>
+        <v>4012.841091492777</v>
       </c>
     </row>
     <row r="125">
@@ -3464,7 +3464,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>G4</t>
+          <t>L8</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -3474,11 +3474,11 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>G4</t>
+          <t>L8</t>
         </is>
       </c>
       <c r="E125" t="n">
-        <v>214.4680120959959</v>
+        <v>216.2380348287395</v>
       </c>
     </row>
     <row r="126">
@@ -3489,7 +3489,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>G5</t>
+          <t>M8</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -3499,11 +3499,11 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>G5</t>
+          <t>M8</t>
         </is>
       </c>
       <c r="E126" t="n">
-        <v>148.1291290994737</v>
+        <v>171.7858860716004</v>
       </c>
     </row>
     <row r="127">
@@ -3514,7 +3514,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>G6</t>
+          <t>N8</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -3524,11 +3524,11 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>G6</t>
+          <t>N8</t>
         </is>
       </c>
       <c r="E127" t="n">
-        <v>196.4752342967169</v>
+        <v>183.5412447767221</v>
       </c>
     </row>
     <row r="128">
@@ -3539,7 +3539,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>G7</t>
+          <t>O8</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -3549,11 +3549,11 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>G7</t>
+          <t>O8</t>
         </is>
       </c>
       <c r="E128" t="n">
-        <v>5718.64277544796</v>
+        <v>183.121116306325</v>
       </c>
     </row>
     <row r="129">
@@ -3564,7 +3564,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>G8</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -3574,11 +3574,11 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>G8</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="E129" t="n">
-        <v>248.1163831247777</v>
+        <v>148.2792196558934</v>
       </c>
     </row>
     <row r="130">
@@ -3589,7 +3589,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>G9</t>
+          <t>A9</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -3599,11 +3599,11 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>G9</t>
+          <t>A9</t>
         </is>
       </c>
       <c r="E130" t="n">
-        <v>198.9376728271033</v>
+        <v>151.3156899238882</v>
       </c>
     </row>
     <row r="131">
@@ -3614,7 +3614,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>G10</t>
+          <t>B9</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -3624,11 +3624,11 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>G10</t>
+          <t>B9</t>
         </is>
       </c>
       <c r="E131" t="n">
-        <v>226.319442348894</v>
+        <v>183.8787381015133</v>
       </c>
     </row>
     <row r="132">
@@ -3639,7 +3639,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>G11</t>
+          <t>C9</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -3649,11 +3649,11 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>G11</t>
+          <t>C9</t>
         </is>
       </c>
       <c r="E132" t="n">
-        <v>200.8825439765369</v>
+        <v>253.944606216564</v>
       </c>
     </row>
     <row r="133">
@@ -3664,7 +3664,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>G12</t>
+          <t>D9</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -3674,11 +3674,11 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>G12</t>
+          <t>D9</t>
         </is>
       </c>
       <c r="E133" t="n">
-        <v>237.8102432798789</v>
+        <v>201.8896874747638</v>
       </c>
     </row>
     <row r="134">
@@ -3689,7 +3689,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>G13</t>
+          <t>E9</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -3699,11 +3699,11 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>G13</t>
+          <t>E9</t>
         </is>
       </c>
       <c r="E134" t="n">
-        <v>129.5554950963245</v>
+        <v>194.507118960554</v>
       </c>
     </row>
     <row r="135">
@@ -3714,7 +3714,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>G14</t>
+          <t>F9</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -3724,11 +3724,11 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>G14</t>
+          <t>F9</t>
         </is>
       </c>
       <c r="E135" t="n">
-        <v>153.4911563512082</v>
+        <v>2573.781743308167</v>
       </c>
     </row>
     <row r="136">
@@ -3739,7 +3739,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>G15</t>
+          <t>G9</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -3749,11 +3749,11 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>G15</t>
+          <t>G9</t>
         </is>
       </c>
       <c r="E136" t="n">
-        <v>144.9828678577815</v>
+        <v>198.9376728271033</v>
       </c>
     </row>
     <row r="137">
@@ -3764,7 +3764,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>G16</t>
+          <t>H9</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -3774,11 +3774,11 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>G16</t>
+          <t>H9</t>
         </is>
       </c>
       <c r="E137" t="n">
-        <v>182.4639937718957</v>
+        <v>193.3600170156815</v>
       </c>
     </row>
     <row r="138">
@@ -3789,7 +3789,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>G17</t>
+          <t>I9</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -3799,11 +3799,11 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>G17</t>
+          <t>I9</t>
         </is>
       </c>
       <c r="E138" t="n">
-        <v>155.0660064300704</v>
+        <v>182.8532419879805</v>
       </c>
     </row>
     <row r="139">
@@ -3814,7 +3814,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>G18</t>
+          <t>J9</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -3824,11 +3824,11 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>G18</t>
+          <t>J9</t>
         </is>
       </c>
       <c r="E139" t="n">
-        <v>231.9539803303024</v>
+        <v>200.0987153662473</v>
       </c>
     </row>
     <row r="140">
@@ -3839,7 +3839,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>G19</t>
+          <t>K9</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -3849,11 +3849,11 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>G19</t>
+          <t>K9</t>
         </is>
       </c>
       <c r="E140" t="n">
-        <v>125.0203158013177</v>
+        <v>206.3330490522435</v>
       </c>
     </row>
     <row r="141">
@@ -3864,7 +3864,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>G20</t>
+          <t>L9</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -3874,11 +3874,11 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>G20</t>
+          <t>L9</t>
         </is>
       </c>
       <c r="E141" t="n">
-        <v>210.6283042315226</v>
+        <v>204.7138782361852</v>
       </c>
     </row>
     <row r="142">
@@ -3889,7 +3889,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>H1</t>
+          <t>M9</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -3899,11 +3899,11 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>H1</t>
+          <t>M9</t>
         </is>
       </c>
       <c r="E142" t="n">
-        <v>163.0514536037089</v>
+        <v>170.8759099142203</v>
       </c>
     </row>
     <row r="143">
@@ -3914,7 +3914,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>H2</t>
+          <t>N9</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -3924,11 +3924,11 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>H2</t>
+          <t>N9</t>
         </is>
       </c>
       <c r="E143" t="n">
-        <v>291.1886319958069</v>
+        <v>173.444491981083</v>
       </c>
     </row>
     <row r="144">
@@ -3939,7 +3939,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>H3</t>
+          <t>O9</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -3949,11 +3949,11 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>H3</t>
+          <t>O9</t>
         </is>
       </c>
       <c r="E144" t="n">
-        <v>150.7681637945331</v>
+        <v>190.7838673161797</v>
       </c>
     </row>
     <row r="145">
@@ -3964,7 +3964,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>H4</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -3974,11 +3974,11 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>H4</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="E145" t="n">
-        <v>252.3213564796125</v>
+        <v>160.1571675671059</v>
       </c>
     </row>
     <row r="146">
@@ -3989,7 +3989,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>H5</t>
+          <t>A10</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -3999,11 +3999,11 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>H5</t>
+          <t>A10</t>
         </is>
       </c>
       <c r="E146" t="n">
-        <v>181.1528567805514</v>
+        <v>272.2545398444519</v>
       </c>
     </row>
     <row r="147">
@@ -4014,7 +4014,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>H6</t>
+          <t>B10</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -4024,11 +4024,11 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>H6</t>
+          <t>B10</t>
         </is>
       </c>
       <c r="E147" t="n">
-        <v>23696.68246445498</v>
+        <v>312.7247709291053</v>
       </c>
     </row>
     <row r="148">
@@ -4039,7 +4039,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>C10</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -4049,11 +4049,11 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>C10</t>
         </is>
       </c>
       <c r="E148" t="n">
-        <v>163.0470227613644</v>
+        <v>290.0063801403631</v>
       </c>
     </row>
     <row r="149">
@@ -4064,7 +4064,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>H8</t>
+          <t>D10</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -4074,11 +4074,11 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>H8</t>
+          <t>D10</t>
         </is>
       </c>
       <c r="E149" t="n">
-        <v>275.9102739789021</v>
+        <v>256.16722596511</v>
       </c>
     </row>
     <row r="150">
@@ -4089,7 +4089,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>H9</t>
+          <t>E10</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -4099,11 +4099,11 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>H9</t>
+          <t>E10</t>
         </is>
       </c>
       <c r="E150" t="n">
-        <v>193.3600170156815</v>
+        <v>203.2093530491564</v>
       </c>
     </row>
     <row r="151">
@@ -4114,7 +4114,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>H10</t>
+          <t>F10</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -4124,11 +4124,11 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>H10</t>
+          <t>F10</t>
         </is>
       </c>
       <c r="E151" t="n">
-        <v>236.3302636657975</v>
+        <v>482.1135859608524</v>
       </c>
     </row>
     <row r="152">
@@ -4139,7 +4139,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>H11</t>
+          <t>G10</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -4149,11 +4149,11 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>H11</t>
+          <t>G10</t>
         </is>
       </c>
       <c r="E152" t="n">
-        <v>151.9441250804038</v>
+        <v>226.319442348894</v>
       </c>
     </row>
     <row r="153">
@@ -4164,7 +4164,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>H12</t>
+          <t>H10</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -4174,11 +4174,11 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>H12</t>
+          <t>H10</t>
         </is>
       </c>
       <c r="E153" t="n">
-        <v>182.2699904612038</v>
+        <v>236.3302636657975</v>
       </c>
     </row>
     <row r="154">
@@ -4189,7 +4189,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>H13</t>
+          <t>I10</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -4199,11 +4199,11 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>H13</t>
+          <t>I10</t>
         </is>
       </c>
       <c r="E154" t="n">
-        <v>165.946642622842</v>
+        <v>208.4839050425307</v>
       </c>
     </row>
     <row r="155">
@@ -4214,7 +4214,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>H14</t>
+          <t>J10</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -4224,11 +4224,11 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>H14</t>
+          <t>J10</t>
         </is>
       </c>
       <c r="E155" t="n">
-        <v>151.2508444838817</v>
+        <v>206.2833921241001</v>
       </c>
     </row>
     <row r="156">
@@ -4239,7 +4239,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>H15</t>
+          <t>K10</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -4249,11 +4249,11 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>H15</t>
+          <t>K10</t>
         </is>
       </c>
       <c r="E156" t="n">
-        <v>184.0987751294828</v>
+        <v>8040.739748056822</v>
       </c>
     </row>
     <row r="157">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>H16</t>
+          <t>L10</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -4274,11 +4274,11 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>H16</t>
+          <t>L10</t>
         </is>
       </c>
       <c r="E157" t="n">
-        <v>170.7348999208929</v>
+        <v>269.0800154272542</v>
       </c>
     </row>
     <row r="158">
@@ -4289,7 +4289,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>H17</t>
+          <t>M10</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -4299,11 +4299,11 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>H17</t>
+          <t>M10</t>
         </is>
       </c>
       <c r="E158" t="n">
-        <v>11691.34840218238</v>
+        <v>193.204358690332</v>
       </c>
     </row>
     <row r="159">
@@ -4314,7 +4314,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>H18</t>
+          <t>N10</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -4324,11 +4324,11 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>H18</t>
+          <t>N10</t>
         </is>
       </c>
       <c r="E159" t="n">
-        <v>154.2805128284246</v>
+        <v>187.8334042926194</v>
       </c>
     </row>
     <row r="160">
@@ -4339,7 +4339,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>H19</t>
+          <t>O10</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -4349,11 +4349,11 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>H19</t>
+          <t>O10</t>
         </is>
       </c>
       <c r="E160" t="n">
-        <v>170.2262874781543</v>
+        <v>225.1305757339257</v>
       </c>
     </row>
     <row r="161">
@@ -4364,7 +4364,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>H20</t>
+          <t>P10</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -4374,11 +4374,11 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>H20</t>
+          <t>P10</t>
         </is>
       </c>
       <c r="E161" t="n">
-        <v>177.9771121433784</v>
+        <v>224.6753441277354</v>
       </c>
     </row>
     <row r="162">
@@ -4389,7 +4389,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>I1</t>
+          <t>A11</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -4399,11 +4399,11 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>I1</t>
+          <t>A11</t>
         </is>
       </c>
       <c r="E162" t="n">
-        <v>142.4224153892168</v>
+        <v>173.2141619898843</v>
       </c>
     </row>
     <row r="163">
@@ -4414,7 +4414,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>I2</t>
+          <t>B11</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -4424,11 +4424,11 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>I2</t>
+          <t>B11</t>
         </is>
       </c>
       <c r="E163" t="n">
-        <v>186.2763969177466</v>
+        <v>156.7758523380506</v>
       </c>
     </row>
     <row r="164">
@@ -4439,7 +4439,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>I3</t>
+          <t>C11</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -4449,11 +4449,11 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>I3</t>
+          <t>C11</t>
         </is>
       </c>
       <c r="E164" t="n">
-        <v>158.3272201434445</v>
+        <v>155.5040664313372</v>
       </c>
     </row>
     <row r="165">
@@ -4464,7 +4464,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>I4</t>
+          <t>D11</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -4474,11 +4474,11 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>I4</t>
+          <t>D11</t>
         </is>
       </c>
       <c r="E165" t="n">
-        <v>159.2644107747683</v>
+        <v>152.1753465793518</v>
       </c>
     </row>
     <row r="166">
@@ -4489,7 +4489,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>I5</t>
+          <t>E11</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -4499,11 +4499,11 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>I5</t>
+          <t>E11</t>
         </is>
       </c>
       <c r="E166" t="n">
-        <v>160.7837672708563</v>
+        <v>158.6915353935021</v>
       </c>
     </row>
     <row r="167">
@@ -4514,7 +4514,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>I6</t>
+          <t>F11</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -4524,11 +4524,11 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>I6</t>
+          <t>F11</t>
         </is>
       </c>
       <c r="E167" t="n">
-        <v>192.5347846177543</v>
+        <v>160.521373420871</v>
       </c>
     </row>
     <row r="168">
@@ -4539,7 +4539,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>I7</t>
+          <t>G11</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -4549,11 +4549,11 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>I7</t>
+          <t>G11</t>
         </is>
       </c>
       <c r="E168" t="n">
-        <v>178.1673704277799</v>
+        <v>200.8825439765369</v>
       </c>
     </row>
     <row r="169">
@@ -4564,7 +4564,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>I8</t>
+          <t>H11</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -4574,11 +4574,11 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>I8</t>
+          <t>H11</t>
         </is>
       </c>
       <c r="E169" t="n">
-        <v>190.6504995043087</v>
+        <v>151.9441250804038</v>
       </c>
     </row>
     <row r="170">
@@ -4589,7 +4589,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>I9</t>
+          <t>I11</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -4599,11 +4599,11 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>I9</t>
+          <t>I11</t>
         </is>
       </c>
       <c r="E170" t="n">
-        <v>182.8532419879805</v>
+        <v>202.6670990231446</v>
       </c>
     </row>
     <row r="171">
@@ -4614,7 +4614,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>I10</t>
+          <t>J11</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -4624,11 +4624,11 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>I10</t>
+          <t>J11</t>
         </is>
       </c>
       <c r="E171" t="n">
-        <v>208.4839050425307</v>
+        <v>194.6901506252799</v>
       </c>
     </row>
     <row r="172">
@@ -4639,7 +4639,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>I11</t>
+          <t>K11</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -4649,11 +4649,11 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>I11</t>
+          <t>K11</t>
         </is>
       </c>
       <c r="E172" t="n">
-        <v>202.6670990231446</v>
+        <v>175.1610021544803</v>
       </c>
     </row>
     <row r="173">
@@ -4664,7 +4664,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>I12</t>
+          <t>L11</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -4674,11 +4674,11 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>I12</t>
+          <t>L11</t>
         </is>
       </c>
       <c r="E173" t="n">
-        <v>259.9856141293515</v>
+        <v>220.781419035774</v>
       </c>
     </row>
     <row r="174">
@@ -4689,7 +4689,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>I13</t>
+          <t>M11</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -4699,11 +4699,11 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>I13</t>
+          <t>M11</t>
         </is>
       </c>
       <c r="E174" t="n">
-        <v>146.38002205459</v>
+        <v>191.6614492161046</v>
       </c>
     </row>
     <row r="175">
@@ -4714,7 +4714,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>I14</t>
+          <t>N11</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -4724,11 +4724,11 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>I14</t>
+          <t>N11</t>
         </is>
       </c>
       <c r="E175" t="n">
-        <v>168.7564338390401</v>
+        <v>194.0604563008196</v>
       </c>
     </row>
     <row r="176">
@@ -4739,7 +4739,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>I15</t>
+          <t>O11</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -4749,11 +4749,11 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>I15</t>
+          <t>O11</t>
         </is>
       </c>
       <c r="E176" t="n">
-        <v>144.3619442666654</v>
+        <v>141.4187125240412</v>
       </c>
     </row>
     <row r="177">
@@ -4764,7 +4764,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>I16</t>
+          <t>P11</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -4774,11 +4774,11 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>I16</t>
+          <t>P11</t>
         </is>
       </c>
       <c r="E177" t="n">
-        <v>156.2532552761516</v>
+        <v>258.7634556996964</v>
       </c>
     </row>
     <row r="178">
@@ -4789,7 +4789,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>I17</t>
+          <t>A12</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -4799,11 +4799,11 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>I17</t>
+          <t>A12</t>
         </is>
       </c>
       <c r="E178" t="n">
-        <v>167.5687450776682</v>
+        <v>258.9644873366366</v>
       </c>
     </row>
     <row r="179">
@@ -4814,7 +4814,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>I18</t>
+          <t>B12</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -4824,11 +4824,11 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>I18</t>
+          <t>B12</t>
         </is>
       </c>
       <c r="E179" t="n">
-        <v>595.1672419950006</v>
+        <v>297.2916728602432</v>
       </c>
     </row>
     <row r="180">
@@ -4839,7 +4839,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>I19</t>
+          <t>C12</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -4849,11 +4849,11 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>I19</t>
+          <t>C12</t>
         </is>
       </c>
       <c r="E180" t="n">
-        <v>158.9943080037735</v>
+        <v>175.6070149148892</v>
       </c>
     </row>
     <row r="181">
@@ -4864,7 +4864,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>J1</t>
+          <t>D12</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -4874,11 +4874,11 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>J1</t>
+          <t>D12</t>
         </is>
       </c>
       <c r="E181" t="n">
-        <v>215.4383092401491</v>
+        <v>172.1209895809428</v>
       </c>
     </row>
     <row r="182">
@@ -4889,7 +4889,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>J2</t>
+          <t>E12</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -4899,11 +4899,11 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>J2</t>
+          <t>E12</t>
         </is>
       </c>
       <c r="E182" t="n">
-        <v>186.1896900562293</v>
+        <v>250.6035368512501</v>
       </c>
     </row>
     <row r="183">
@@ -4914,7 +4914,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>J3</t>
+          <t>F12</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -4924,11 +4924,11 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>J3</t>
+          <t>F12</t>
         </is>
       </c>
       <c r="E183" t="n">
-        <v>208.7014595188735</v>
+        <v>190.595993672213</v>
       </c>
     </row>
     <row r="184">
@@ -4939,7 +4939,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>J4</t>
+          <t>G12</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -4949,11 +4949,11 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>J4</t>
+          <t>G12</t>
         </is>
       </c>
       <c r="E184" t="n">
-        <v>232.5473233803079</v>
+        <v>237.8102432798789</v>
       </c>
     </row>
     <row r="185">
@@ -4964,7 +4964,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>J5</t>
+          <t>H12</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -4974,11 +4974,11 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>J5</t>
+          <t>H12</t>
         </is>
       </c>
       <c r="E185" t="n">
-        <v>4215.851602023608</v>
+        <v>182.2699904612038</v>
       </c>
     </row>
     <row r="186">
@@ -4989,7 +4989,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>J6</t>
+          <t>I12</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -4999,11 +4999,11 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>J6</t>
+          <t>I12</t>
         </is>
       </c>
       <c r="E186" t="n">
-        <v>192.4174689406135</v>
+        <v>259.9856141293515</v>
       </c>
     </row>
     <row r="187">
@@ -5014,7 +5014,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>J7</t>
+          <t>J12</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -5024,11 +5024,11 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>J7</t>
+          <t>J12</t>
         </is>
       </c>
       <c r="E187" t="n">
-        <v>182.4418010654601</v>
+        <v>246.9013875857982</v>
       </c>
     </row>
     <row r="188">
@@ -5039,7 +5039,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>J8</t>
+          <t>K12</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -5049,11 +5049,11 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>J8</t>
+          <t>K12</t>
         </is>
       </c>
       <c r="E188" t="n">
-        <v>183.3617544052661</v>
+        <v>169.1846989358282</v>
       </c>
     </row>
     <row r="189">
@@ -5064,7 +5064,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>J9</t>
+          <t>L12</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -5074,11 +5074,11 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>J9</t>
+          <t>L12</t>
         </is>
       </c>
       <c r="E189" t="n">
-        <v>200.0987153662473</v>
+        <v>169.3088249403187</v>
       </c>
     </row>
     <row r="190">
@@ -5089,7 +5089,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>J10</t>
+          <t>M12</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -5099,11 +5099,11 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>J10</t>
+          <t>M12</t>
         </is>
       </c>
       <c r="E190" t="n">
-        <v>206.2833921241001</v>
+        <v>195.2603797163517</v>
       </c>
     </row>
     <row r="191">
@@ -5114,7 +5114,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>J11</t>
+          <t>N12</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -5124,11 +5124,11 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>J11</t>
+          <t>N12</t>
         </is>
       </c>
       <c r="E191" t="n">
-        <v>194.6901506252799</v>
+        <v>179.3872132794375</v>
       </c>
     </row>
     <row r="192">
@@ -5139,7 +5139,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>J12</t>
+          <t>O12</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -5149,11 +5149,11 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>J12</t>
+          <t>O12</t>
         </is>
       </c>
       <c r="E192" t="n">
-        <v>246.9013875857982</v>
+        <v>2859.593937660852</v>
       </c>
     </row>
     <row r="193">
@@ -5164,7 +5164,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>J13</t>
+          <t>P12</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -5174,11 +5174,11 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>J13</t>
+          <t>P12</t>
         </is>
       </c>
       <c r="E193" t="n">
-        <v>163.1401210499698</v>
+        <v>177.3406003570457</v>
       </c>
     </row>
     <row r="194">
@@ -5189,7 +5189,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>J14</t>
+          <t>A13</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -5199,11 +5199,11 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>J14</t>
+          <t>A13</t>
         </is>
       </c>
       <c r="E194" t="n">
-        <v>227.7454716608718</v>
+        <v>184.443993581349</v>
       </c>
     </row>
     <row r="195">
@@ -5214,7 +5214,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>J15</t>
+          <t>B13</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -5224,11 +5224,11 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>J15</t>
+          <t>B13</t>
         </is>
       </c>
       <c r="E195" t="n">
-        <v>152.6748636104552</v>
+        <v>155.7341306920825</v>
       </c>
     </row>
     <row r="196">
@@ -5239,7 +5239,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>J16</t>
+          <t>C13</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -5249,11 +5249,11 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>J16</t>
+          <t>C13</t>
         </is>
       </c>
       <c r="E196" t="n">
-        <v>153.7389307969826</v>
+        <v>214.882781442723</v>
       </c>
     </row>
     <row r="197">
@@ -5264,7 +5264,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>J17</t>
+          <t>D13</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -5274,11 +5274,11 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>J17</t>
+          <t>D13</t>
         </is>
       </c>
       <c r="E197" t="n">
-        <v>176.9013951623365</v>
+        <v>166.6009518467716</v>
       </c>
     </row>
     <row r="198">
@@ -5289,7 +5289,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>J18</t>
+          <t>E13</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -5299,11 +5299,11 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>J18</t>
+          <t>E13</t>
         </is>
       </c>
       <c r="E198" t="n">
-        <v>5569.996286669142</v>
+        <v>331.1404477018853</v>
       </c>
     </row>
     <row r="199">
@@ -5314,7 +5314,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>J19</t>
+          <t>F13</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -5324,11 +5324,11 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>J19</t>
+          <t>F13</t>
         </is>
       </c>
       <c r="E199" t="n">
-        <v>170.9927841045108</v>
+        <v>186.8623322910568</v>
       </c>
     </row>
     <row r="200">
@@ -5339,7 +5339,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>K1</t>
+          <t>G13</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -5349,11 +5349,11 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>K1</t>
+          <t>G13</t>
         </is>
       </c>
       <c r="E200" t="n">
-        <v>162.2972636681345</v>
+        <v>129.5554950963245</v>
       </c>
     </row>
     <row r="201">
@@ -5364,7 +5364,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>K2</t>
+          <t>H13</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -5374,11 +5374,11 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>K2</t>
+          <t>H13</t>
         </is>
       </c>
       <c r="E201" t="n">
-        <v>375.3471961564447</v>
+        <v>165.946642622842</v>
       </c>
     </row>
     <row r="202">
@@ -5389,7 +5389,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>K3</t>
+          <t>I13</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -5399,11 +5399,11 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>K3</t>
+          <t>I13</t>
         </is>
       </c>
       <c r="E202" t="n">
-        <v>139.6479010920466</v>
+        <v>146.38002205459</v>
       </c>
     </row>
     <row r="203">
@@ -5414,7 +5414,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>K4</t>
+          <t>J13</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -5424,11 +5424,11 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>K4</t>
+          <t>J13</t>
         </is>
       </c>
       <c r="E203" t="n">
-        <v>185.4072160488486</v>
+        <v>163.1401210499698</v>
       </c>
     </row>
     <row r="204">
@@ -5439,7 +5439,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>K5</t>
+          <t>K13</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -5449,11 +5449,11 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>K5</t>
+          <t>K13</t>
         </is>
       </c>
       <c r="E204" t="n">
-        <v>236.5911940757565</v>
+        <v>134.7127923267593</v>
       </c>
     </row>
     <row r="205">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>K6</t>
+          <t>L13</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -5474,11 +5474,11 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>K6</t>
+          <t>L13</t>
         </is>
       </c>
       <c r="E205" t="n">
-        <v>179.774203600278</v>
+        <v>265.2965573350077</v>
       </c>
     </row>
     <row r="206">
@@ -5489,7 +5489,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>K7</t>
+          <t>M13</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -5499,11 +5499,11 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>K7</t>
+          <t>M13</t>
         </is>
       </c>
       <c r="E206" t="n">
-        <v>242.0701842154102</v>
+        <v>138.0509960379364</v>
       </c>
     </row>
     <row r="207">
@@ -5514,7 +5514,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>K8</t>
+          <t>N13</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -5524,11 +5524,11 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>K8</t>
+          <t>N13</t>
         </is>
       </c>
       <c r="E207" t="n">
-        <v>4012.841091492777</v>
+        <v>185.3843016573357</v>
       </c>
     </row>
     <row r="208">
@@ -5539,7 +5539,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>K9</t>
+          <t>O13</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -5549,11 +5549,11 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>K9</t>
+          <t>O13</t>
         </is>
       </c>
       <c r="E208" t="n">
-        <v>206.3330490522435</v>
+        <v>211.9826739494492</v>
       </c>
     </row>
     <row r="209">
@@ -5564,7 +5564,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>K10</t>
+          <t>P13</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -5574,11 +5574,11 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>K10</t>
+          <t>P13</t>
         </is>
       </c>
       <c r="E209" t="n">
-        <v>8040.739748056822</v>
+        <v>210.8133177799952</v>
       </c>
     </row>
     <row r="210">
@@ -5589,7 +5589,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>K11</t>
+          <t>A14</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -5599,11 +5599,11 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>K11</t>
+          <t>A14</t>
         </is>
       </c>
       <c r="E210" t="n">
-        <v>175.1610021544803</v>
+        <v>171.2954503928376</v>
       </c>
     </row>
     <row r="211">
@@ -5614,7 +5614,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>K12</t>
+          <t>B14</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -5624,11 +5624,11 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>K12</t>
+          <t>B14</t>
         </is>
       </c>
       <c r="E211" t="n">
-        <v>169.1846989358282</v>
+        <v>214.2229775565727</v>
       </c>
     </row>
     <row r="212">
@@ -5639,7 +5639,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>K13</t>
+          <t>C14</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -5649,11 +5649,11 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>K13</t>
+          <t>C14</t>
         </is>
       </c>
       <c r="E212" t="n">
-        <v>134.7127923267593</v>
+        <v>442.1452889419463</v>
       </c>
     </row>
     <row r="213">
@@ -5664,7 +5664,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>K14</t>
+          <t>D14</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -5674,11 +5674,11 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>K14</t>
+          <t>D14</t>
         </is>
       </c>
       <c r="E213" t="n">
-        <v>153.3342533388534</v>
+        <v>215.6473734149918</v>
       </c>
     </row>
     <row r="214">
@@ -5689,7 +5689,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>K15</t>
+          <t>E14</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -5699,11 +5699,11 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>K15</t>
+          <t>E14</t>
         </is>
       </c>
       <c r="E214" t="n">
-        <v>136.4995154267203</v>
+        <v>166.3054143499399</v>
       </c>
     </row>
     <row r="215">
@@ -5714,7 +5714,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>K16</t>
+          <t>F14</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -5724,11 +5724,11 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>K16</t>
+          <t>F14</t>
         </is>
       </c>
       <c r="E215" t="n">
-        <v>20746.88796680498</v>
+        <v>204.2122173362558</v>
       </c>
     </row>
     <row r="216">
@@ -5739,7 +5739,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>K17</t>
+          <t>G14</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -5749,11 +5749,11 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>K17</t>
+          <t>G14</t>
         </is>
       </c>
       <c r="E216" t="n">
-        <v>175.3760354493427</v>
+        <v>153.4911563512082</v>
       </c>
     </row>
     <row r="217">
@@ -5764,7 +5764,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>K18</t>
+          <t>H14</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -5774,11 +5774,11 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>K18</t>
+          <t>H14</t>
         </is>
       </c>
       <c r="E217" t="n">
-        <v>186.2706139479436</v>
+        <v>151.2508444838817</v>
       </c>
     </row>
     <row r="218">
@@ -5789,7 +5789,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>K19</t>
+          <t>I14</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -5799,11 +5799,11 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>K19</t>
+          <t>I14</t>
         </is>
       </c>
       <c r="E218" t="n">
-        <v>190.7838673161797</v>
+        <v>168.7564338390401</v>
       </c>
     </row>
     <row r="219">
@@ -5814,7 +5814,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>L1</t>
+          <t>J14</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -5824,11 +5824,11 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>L1</t>
+          <t>J14</t>
         </is>
       </c>
       <c r="E219" t="n">
-        <v>172.8797736427497</v>
+        <v>227.7454716608718</v>
       </c>
     </row>
     <row r="220">
@@ -5839,7 +5839,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>L2</t>
+          <t>K14</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -5849,11 +5849,11 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>L2</t>
+          <t>K14</t>
         </is>
       </c>
       <c r="E220" t="n">
-        <v>235.986344256879</v>
+        <v>153.3342533388534</v>
       </c>
     </row>
     <row r="221">
@@ -5864,7 +5864,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>L3</t>
+          <t>L14</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -5874,11 +5874,11 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>L3</t>
+          <t>L14</t>
         </is>
       </c>
       <c r="E221" t="n">
-        <v>166.2409052371427</v>
+        <v>205.0286698423329</v>
       </c>
     </row>
     <row r="222">
@@ -5889,7 +5889,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>L4</t>
+          <t>M14</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -5899,11 +5899,11 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>L4</t>
+          <t>M14</t>
         </is>
       </c>
       <c r="E222" t="n">
-        <v>348.4684810258912</v>
+        <v>180.8416369784979</v>
       </c>
     </row>
     <row r="223">
@@ -5914,7 +5914,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>L5</t>
+          <t>N14</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -5924,11 +5924,11 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>L5</t>
+          <t>N14</t>
         </is>
       </c>
       <c r="E223" t="n">
-        <v>714.183688044565</v>
+        <v>197.7053004791058</v>
       </c>
     </row>
     <row r="224">
@@ -5939,7 +5939,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>L6</t>
+          <t>O14</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -5949,11 +5949,11 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>L6</t>
+          <t>O14</t>
         </is>
       </c>
       <c r="E224" t="n">
-        <v>195.0635907305782</v>
+        <v>176.0966418370402</v>
       </c>
     </row>
     <row r="225">
@@ -5964,7 +5964,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>L7</t>
+          <t>P14</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -5974,11 +5974,11 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>L7</t>
+          <t>P14</t>
         </is>
       </c>
       <c r="E225" t="n">
-        <v>171.9729887758963</v>
+        <v>152.2912214263596</v>
       </c>
     </row>
     <row r="226">
@@ -5989,7 +5989,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>L8</t>
+          <t>A15</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -5999,11 +5999,11 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>L8</t>
+          <t>A15</t>
         </is>
       </c>
       <c r="E226" t="n">
-        <v>216.2380348287395</v>
+        <v>151.9749140075278</v>
       </c>
     </row>
     <row r="227">
@@ -6014,7 +6014,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>L9</t>
+          <t>B15</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -6024,11 +6024,11 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>L9</t>
+          <t>B15</t>
         </is>
       </c>
       <c r="E227" t="n">
-        <v>204.7138782361852</v>
+        <v>176.0191508836162</v>
       </c>
     </row>
     <row r="228">
@@ -6039,7 +6039,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>L10</t>
+          <t>C15</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -6049,11 +6049,11 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>L10</t>
+          <t>C15</t>
         </is>
       </c>
       <c r="E228" t="n">
-        <v>269.0800154272542</v>
+        <v>165.8640688667614</v>
       </c>
     </row>
     <row r="229">
@@ -6064,7 +6064,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>L11</t>
+          <t>D15</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -6074,11 +6074,11 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>L11</t>
+          <t>D15</t>
         </is>
       </c>
       <c r="E229" t="n">
-        <v>220.781419035774</v>
+        <v>184.002796842512</v>
       </c>
     </row>
     <row r="230">
@@ -6089,7 +6089,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>L12</t>
+          <t>E15</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -6099,11 +6099,11 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>L12</t>
+          <t>E15</t>
         </is>
       </c>
       <c r="E230" t="n">
-        <v>169.3088249403187</v>
+        <v>159.2855512076499</v>
       </c>
     </row>
     <row r="231">
@@ -6114,7 +6114,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>L13</t>
+          <t>F15</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -6124,11 +6124,11 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>L13</t>
+          <t>F15</t>
         </is>
       </c>
       <c r="E231" t="n">
-        <v>265.2965573350077</v>
+        <v>147.5317931014134</v>
       </c>
     </row>
     <row r="232">
@@ -6139,7 +6139,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>L14</t>
+          <t>G15</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -6149,11 +6149,11 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>L14</t>
+          <t>G15</t>
         </is>
       </c>
       <c r="E232" t="n">
-        <v>205.0286698423329</v>
+        <v>144.9828678577815</v>
       </c>
     </row>
     <row r="233">
@@ -6164,7 +6164,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>L15</t>
+          <t>H15</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -6174,11 +6174,11 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>L15</t>
+          <t>H15</t>
         </is>
       </c>
       <c r="E233" t="n">
-        <v>168.8181603322342</v>
+        <v>184.0987751294828</v>
       </c>
     </row>
     <row r="234">
@@ -6189,7 +6189,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>L16</t>
+          <t>I15</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -6199,11 +6199,11 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>L16</t>
+          <t>I15</t>
         </is>
       </c>
       <c r="E234" t="n">
-        <v>247.2065658063878</v>
+        <v>144.3619442666654</v>
       </c>
     </row>
     <row r="235">
@@ -6214,7 +6214,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>L17</t>
+          <t>J15</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -6224,11 +6224,11 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>L17</t>
+          <t>J15</t>
         </is>
       </c>
       <c r="E235" t="n">
-        <v>191.1181046180505</v>
+        <v>152.6748636104552</v>
       </c>
     </row>
     <row r="236">
@@ -6239,7 +6239,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>L18</t>
+          <t>K15</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -6249,11 +6249,11 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>L18</t>
+          <t>K15</t>
         </is>
       </c>
       <c r="E236" t="n">
-        <v>182.5528186155194</v>
+        <v>136.4995154267203</v>
       </c>
     </row>
     <row r="237">
@@ -6264,7 +6264,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>L19</t>
+          <t>L15</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -6274,11 +6274,11 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>L19</t>
+          <t>L15</t>
         </is>
       </c>
       <c r="E237" t="n">
-        <v>188.4351092295516</v>
+        <v>168.8181603322342</v>
       </c>
     </row>
     <row r="238">
@@ -6289,7 +6289,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>M15</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -6299,11 +6299,11 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>M15</t>
         </is>
       </c>
       <c r="E238" t="n">
-        <v>175.6275758711128</v>
+        <v>143.932524432546</v>
       </c>
     </row>
     <row r="239">
@@ -6314,7 +6314,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>M2</t>
+          <t>N15</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -6324,11 +6324,11 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>M2</t>
+          <t>N15</t>
         </is>
       </c>
       <c r="E239" t="n">
-        <v>188.5476177008503</v>
+        <v>157.9728918517582</v>
       </c>
     </row>
     <row r="240">
@@ -6339,7 +6339,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>M3</t>
+          <t>O15</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -6349,11 +6349,11 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>M3</t>
+          <t>O15</t>
         </is>
       </c>
       <c r="E240" t="n">
-        <v>208.2089862998487</v>
+        <v>134.2606267286056</v>
       </c>
     </row>
     <row r="241">
@@ -6364,7 +6364,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>M4</t>
+          <t>P15</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -6374,11 +6374,11 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>M4</t>
+          <t>P15</t>
         </is>
       </c>
       <c r="E241" t="n">
-        <v>185.0184401712038</v>
+        <v>177.8241437767477</v>
       </c>
     </row>
     <row r="242">
@@ -6389,7 +6389,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>M5</t>
+          <t>A16</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -6399,11 +6399,11 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>M5</t>
+          <t>A16</t>
         </is>
       </c>
       <c r="E242" t="n">
-        <v>155.2827180686971</v>
+        <v>146.1019986753419</v>
       </c>
     </row>
     <row r="243">
@@ -6414,7 +6414,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>M6</t>
+          <t>B16</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -6424,11 +6424,11 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>M6</t>
+          <t>B16</t>
         </is>
       </c>
       <c r="E243" t="n">
-        <v>349.3815945775976</v>
+        <v>206.7810395572129</v>
       </c>
     </row>
     <row r="244">
@@ -6439,7 +6439,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>M7</t>
+          <t>C16</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -6449,11 +6449,11 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>M7</t>
+          <t>C16</t>
         </is>
       </c>
       <c r="E244" t="n">
-        <v>179.0980621589675</v>
+        <v>283.7926043647302</v>
       </c>
     </row>
     <row r="245">
@@ -6464,7 +6464,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>M8</t>
+          <t>D16</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -6474,11 +6474,11 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>M8</t>
+          <t>D16</t>
         </is>
       </c>
       <c r="E245" t="n">
-        <v>171.7858860716004</v>
+        <v>198.0381025309269</v>
       </c>
     </row>
     <row r="246">
@@ -6489,7 +6489,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>M9</t>
+          <t>E16</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -6499,11 +6499,11 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>M9</t>
+          <t>E16</t>
         </is>
       </c>
       <c r="E246" t="n">
-        <v>170.8759099142203</v>
+        <v>255.7413943020817</v>
       </c>
     </row>
     <row r="247">
@@ -6514,7 +6514,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>M10</t>
+          <t>F16</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -6524,11 +6524,11 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>M10</t>
+          <t>F16</t>
         </is>
       </c>
       <c r="E247" t="n">
-        <v>193.204358690332</v>
+        <v>237.4902035291044</v>
       </c>
     </row>
     <row r="248">
@@ -6539,7 +6539,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>M11</t>
+          <t>G16</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -6549,11 +6549,11 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>M11</t>
+          <t>G16</t>
         </is>
       </c>
       <c r="E248" t="n">
-        <v>191.6614492161046</v>
+        <v>182.4639937718957</v>
       </c>
     </row>
     <row r="249">
@@ -6564,7 +6564,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>M12</t>
+          <t>H16</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -6574,11 +6574,11 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>M12</t>
+          <t>H16</t>
         </is>
       </c>
       <c r="E249" t="n">
-        <v>195.2603797163517</v>
+        <v>170.7348999208929</v>
       </c>
     </row>
     <row r="250">
@@ -6589,7 +6589,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>M13</t>
+          <t>I16</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -6599,11 +6599,11 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>M13</t>
+          <t>I16</t>
         </is>
       </c>
       <c r="E250" t="n">
-        <v>138.0509960379364</v>
+        <v>156.2532552761516</v>
       </c>
     </row>
     <row r="251">
@@ -6614,7 +6614,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>M14</t>
+          <t>J16</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -6624,11 +6624,11 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>M14</t>
+          <t>J16</t>
         </is>
       </c>
       <c r="E251" t="n">
-        <v>180.8416369784979</v>
+        <v>153.7389307969826</v>
       </c>
     </row>
     <row r="252">
@@ -6639,7 +6639,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>M15</t>
+          <t>K16</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -6649,11 +6649,11 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>M15</t>
+          <t>K16</t>
         </is>
       </c>
       <c r="E252" t="n">
-        <v>143.932524432546</v>
+        <v>20746.88796680498</v>
       </c>
     </row>
     <row r="253">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>M16</t>
+          <t>L16</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -6674,11 +6674,11 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>M16</t>
+          <t>L16</t>
         </is>
       </c>
       <c r="E253" t="n">
-        <v>204.5603316604844</v>
+        <v>247.2065658063878</v>
       </c>
     </row>
     <row r="254">
@@ -6689,7 +6689,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>M17</t>
+          <t>M16</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -6699,11 +6699,11 @@
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>M17</t>
+          <t>M16</t>
         </is>
       </c>
       <c r="E254" t="n">
-        <v>137.6298308070614</v>
+        <v>204.5603316604844</v>
       </c>
     </row>
     <row r="255">
@@ -6714,7 +6714,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>M18</t>
+          <t>N16</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -6724,11 +6724,11 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>M18</t>
+          <t>N16</t>
         </is>
       </c>
       <c r="E255" t="n">
-        <v>157.8648256119893</v>
+        <v>271.6628482944101</v>
       </c>
     </row>
     <row r="256">
@@ -6739,7 +6739,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>M19</t>
+          <t>O16</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -6749,11 +6749,11 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>M19</t>
+          <t>O16</t>
         </is>
       </c>
       <c r="E256" t="n">
-        <v>156.5263668664986</v>
+        <v>216.1912860498969</v>
       </c>
     </row>
     <row r="257">
@@ -6764,7 +6764,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>P16</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -6774,11 +6774,11 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>P16</t>
         </is>
       </c>
       <c r="E257" t="n">
-        <v>234.9145694015943</v>
+        <v>162.7948621941492</v>
       </c>
     </row>
     <row r="258">
@@ -6789,7 +6789,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>N2</t>
+          <t>A17</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -6799,11 +6799,11 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>N2</t>
+          <t>A17</t>
         </is>
       </c>
       <c r="E258" t="n">
-        <v>180.1087857065668</v>
+        <v>150.9008782431114</v>
       </c>
     </row>
     <row r="259">
@@ -6814,7 +6814,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>N3</t>
+          <t>B17</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -6824,11 +6824,11 @@
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>N3</t>
+          <t>B17</t>
         </is>
       </c>
       <c r="E259" t="n">
-        <v>175.4016698238967</v>
+        <v>191.0815854676085</v>
       </c>
     </row>
     <row r="260">
@@ -6839,7 +6839,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>N4</t>
+          <t>C17</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -6849,11 +6849,11 @@
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>N4</t>
+          <t>C17</t>
         </is>
       </c>
       <c r="E260" t="n">
-        <v>343.8947223623275</v>
+        <v>228.3348301949979</v>
       </c>
     </row>
     <row r="261">
@@ -6864,7 +6864,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>N5</t>
+          <t>D17</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -6874,11 +6874,11 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>N5</t>
+          <t>D17</t>
         </is>
       </c>
       <c r="E261" t="n">
-        <v>161.9380748801659</v>
+        <v>193.4472952843998</v>
       </c>
     </row>
     <row r="262">
@@ -6889,7 +6889,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>N6</t>
+          <t>E17</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -6899,11 +6899,11 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>N6</t>
+          <t>E17</t>
         </is>
       </c>
       <c r="E262" t="n">
-        <v>191.7472004908728</v>
+        <v>174.1391720262834</v>
       </c>
     </row>
     <row r="263">
@@ -6914,7 +6914,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>N7</t>
+          <t>F17</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -6924,11 +6924,11 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>N7</t>
+          <t>F17</t>
         </is>
       </c>
       <c r="E263" t="n">
-        <v>163.197806621479</v>
+        <v>222.9554980825827</v>
       </c>
     </row>
     <row r="264">
@@ -6939,7 +6939,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>N8</t>
+          <t>G17</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -6949,11 +6949,11 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>N8</t>
+          <t>G17</t>
         </is>
       </c>
       <c r="E264" t="n">
-        <v>183.5412447767221</v>
+        <v>155.0660064300704</v>
       </c>
     </row>
     <row r="265">
@@ -6964,7 +6964,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>N9</t>
+          <t>H17</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -6974,11 +6974,11 @@
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>N9</t>
+          <t>H17</t>
         </is>
       </c>
       <c r="E265" t="n">
-        <v>173.444491981083</v>
+        <v>11691.34840218238</v>
       </c>
     </row>
     <row r="266">
@@ -6989,7 +6989,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>N10</t>
+          <t>I17</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -6999,11 +6999,11 @@
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>N10</t>
+          <t>I17</t>
         </is>
       </c>
       <c r="E266" t="n">
-        <v>187.8334042926194</v>
+        <v>167.5687450776682</v>
       </c>
     </row>
     <row r="267">
@@ -7014,7 +7014,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>N11</t>
+          <t>J17</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -7024,11 +7024,11 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>N11</t>
+          <t>J17</t>
         </is>
       </c>
       <c r="E267" t="n">
-        <v>194.0604563008196</v>
+        <v>176.9013951623365</v>
       </c>
     </row>
     <row r="268">
@@ -7039,7 +7039,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>N12</t>
+          <t>K17</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -7049,11 +7049,11 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>N12</t>
+          <t>K17</t>
         </is>
       </c>
       <c r="E268" t="n">
-        <v>179.3872132794375</v>
+        <v>175.3760354493427</v>
       </c>
     </row>
     <row r="269">
@@ -7064,7 +7064,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>N13</t>
+          <t>L17</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -7074,11 +7074,11 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>N13</t>
+          <t>L17</t>
         </is>
       </c>
       <c r="E269" t="n">
-        <v>185.3843016573357</v>
+        <v>191.1181046180505</v>
       </c>
     </row>
     <row r="270">
@@ -7089,7 +7089,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>N14</t>
+          <t>M17</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -7099,11 +7099,11 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>N14</t>
+          <t>M17</t>
         </is>
       </c>
       <c r="E270" t="n">
-        <v>197.7053004791058</v>
+        <v>137.6298308070614</v>
       </c>
     </row>
     <row r="271">
@@ -7114,7 +7114,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>N15</t>
+          <t>N17</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -7124,11 +7124,11 @@
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>N15</t>
+          <t>N17</t>
         </is>
       </c>
       <c r="E271" t="n">
-        <v>157.9728918517582</v>
+        <v>177.9771121433784</v>
       </c>
     </row>
     <row r="272">
@@ -7139,7 +7139,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>N16</t>
+          <t>O17</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -7149,11 +7149,11 @@
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>N16</t>
+          <t>O17</t>
         </is>
       </c>
       <c r="E272" t="n">
-        <v>271.6628482944101</v>
+        <v>146.2373139130181</v>
       </c>
     </row>
     <row r="273">
@@ -7164,7 +7164,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>N17</t>
+          <t>P17</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -7174,11 +7174,11 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>N17</t>
+          <t>P17</t>
         </is>
       </c>
       <c r="E273" t="n">
-        <v>177.9771121433784</v>
+        <v>130.9780568095492</v>
       </c>
     </row>
     <row r="274">
@@ -7189,7 +7189,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>N18</t>
+          <t>A18</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -7199,11 +7199,11 @@
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>N18</t>
+          <t>A18</t>
         </is>
       </c>
       <c r="E274" t="n">
-        <v>214.9520656893513</v>
+        <v>191.1972773507705</v>
       </c>
     </row>
     <row r="275">
@@ -7214,7 +7214,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>N19</t>
+          <t>B18</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -7224,11 +7224,11 @@
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>N19</t>
+          <t>B18</t>
         </is>
       </c>
       <c r="E275" t="n">
-        <v>274.5593322717039</v>
+        <v>229.1370697951514</v>
       </c>
     </row>
     <row r="276">
@@ -7239,7 +7239,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>C18</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -7249,11 +7249,11 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>C18</t>
         </is>
       </c>
       <c r="E276" t="n">
-        <v>157.1165962260594</v>
+        <v>247.0437102671366</v>
       </c>
     </row>
     <row r="277">
@@ -7264,7 +7264,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>O2</t>
+          <t>D18</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -7274,11 +7274,11 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>O2</t>
+          <t>D18</t>
         </is>
       </c>
       <c r="E277" t="n">
-        <v>184.5347571215038</v>
+        <v>197.953164281331</v>
       </c>
     </row>
     <row r="278">
@@ -7289,7 +7289,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>O3</t>
+          <t>E18</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -7299,11 +7299,11 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>O3</t>
+          <t>E18</t>
         </is>
       </c>
       <c r="E278" t="n">
-        <v>147.4049360999602</v>
+        <v>174.0381491622964</v>
       </c>
     </row>
     <row r="279">
@@ -7314,7 +7314,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>O4</t>
+          <t>F18</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -7324,11 +7324,11 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>O4</t>
+          <t>F18</t>
         </is>
       </c>
       <c r="E279" t="n">
-        <v>177.6924853847931</v>
+        <v>154.3003507761308</v>
       </c>
     </row>
     <row r="280">
@@ -7339,7 +7339,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>O5</t>
+          <t>G18</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -7349,11 +7349,11 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>O5</t>
+          <t>G18</t>
         </is>
       </c>
       <c r="E280" t="n">
-        <v>215.973392078096</v>
+        <v>231.9539803303024</v>
       </c>
     </row>
     <row r="281">
@@ -7364,7 +7364,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>O6</t>
+          <t>H18</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -7374,11 +7374,11 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>O6</t>
+          <t>H18</t>
         </is>
       </c>
       <c r="E281" t="n">
-        <v>182.3253778693456</v>
+        <v>154.2805128284246</v>
       </c>
     </row>
     <row r="282">
@@ -7389,7 +7389,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>O7</t>
+          <t>I18</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -7399,11 +7399,11 @@
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>O7</t>
+          <t>I18</t>
         </is>
       </c>
       <c r="E282" t="n">
-        <v>152.8849387950629</v>
+        <v>595.1672419950006</v>
       </c>
     </row>
     <row r="283">
@@ -7414,7 +7414,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>O8</t>
+          <t>J18</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -7424,11 +7424,11 @@
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>O8</t>
+          <t>J18</t>
         </is>
       </c>
       <c r="E283" t="n">
-        <v>183.121116306325</v>
+        <v>5569.996286669142</v>
       </c>
     </row>
     <row r="284">
@@ -7439,7 +7439,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>O9</t>
+          <t>K18</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -7449,11 +7449,11 @@
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>O9</t>
+          <t>K18</t>
         </is>
       </c>
       <c r="E284" t="n">
-        <v>190.7838673161797</v>
+        <v>186.2706139479436</v>
       </c>
     </row>
     <row r="285">
@@ -7464,7 +7464,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>O10</t>
+          <t>L18</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -7474,11 +7474,11 @@
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>O10</t>
+          <t>L18</t>
         </is>
       </c>
       <c r="E285" t="n">
-        <v>225.1305757339257</v>
+        <v>182.5528186155194</v>
       </c>
     </row>
     <row r="286">
@@ -7489,7 +7489,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>O11</t>
+          <t>M18</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
@@ -7499,11 +7499,11 @@
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>O11</t>
+          <t>M18</t>
         </is>
       </c>
       <c r="E286" t="n">
-        <v>141.4187125240412</v>
+        <v>157.8648256119893</v>
       </c>
     </row>
     <row r="287">
@@ -7514,7 +7514,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>O12</t>
+          <t>N18</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -7524,11 +7524,11 @@
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>O12</t>
+          <t>N18</t>
         </is>
       </c>
       <c r="E287" t="n">
-        <v>2859.593937660852</v>
+        <v>214.9520656893513</v>
       </c>
     </row>
     <row r="288">
@@ -7539,7 +7539,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>O13</t>
+          <t>O18</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -7549,11 +7549,11 @@
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>O13</t>
+          <t>O18</t>
         </is>
       </c>
       <c r="E288" t="n">
-        <v>211.9826739494492</v>
+        <v>187.8981091186952</v>
       </c>
     </row>
     <row r="289">
@@ -7564,7 +7564,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>O14</t>
+          <t>P18</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -7574,11 +7574,11 @@
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>O14</t>
+          <t>P18</t>
         </is>
       </c>
       <c r="E289" t="n">
-        <v>176.0966418370402</v>
+        <v>169.1894696474091</v>
       </c>
     </row>
     <row r="290">
@@ -7589,7 +7589,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>O15</t>
+          <t>A19</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -7599,11 +7599,11 @@
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>O15</t>
+          <t>A19</t>
         </is>
       </c>
       <c r="E290" t="n">
-        <v>134.2606267286056</v>
+        <v>171.051281174096</v>
       </c>
     </row>
     <row r="291">
@@ -7614,7 +7614,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>O16</t>
+          <t>B19</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -7624,11 +7624,11 @@
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>O16</t>
+          <t>B19</t>
         </is>
       </c>
       <c r="E291" t="n">
-        <v>216.1912860498969</v>
+        <v>171.2172404346635</v>
       </c>
     </row>
     <row r="292">
@@ -7639,7 +7639,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>O17</t>
+          <t>C19</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -7649,11 +7649,11 @@
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>O17</t>
+          <t>C19</t>
         </is>
       </c>
       <c r="E292" t="n">
-        <v>146.2373139130181</v>
+        <v>193.1172994476845</v>
       </c>
     </row>
     <row r="293">
@@ -7664,7 +7664,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>O18</t>
+          <t>D19</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -7674,11 +7674,11 @@
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>O18</t>
+          <t>D19</t>
         </is>
       </c>
       <c r="E293" t="n">
-        <v>187.8981091186952</v>
+        <v>223.5119690659435</v>
       </c>
     </row>
     <row r="294">
@@ -7689,7 +7689,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>O19</t>
+          <t>E19</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -7699,11 +7699,11 @@
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>O19</t>
+          <t>E19</t>
         </is>
       </c>
       <c r="E294" t="n">
-        <v>161.0945840000859</v>
+        <v>138.5290980370427</v>
       </c>
     </row>
     <row r="295">
@@ -7714,7 +7714,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>P1</t>
+          <t>F19</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -7724,11 +7724,11 @@
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>P1</t>
+          <t>F19</t>
         </is>
       </c>
       <c r="E295" t="n">
-        <v>220.2869604805193</v>
+        <v>213.8640964954804</v>
       </c>
     </row>
     <row r="296">
@@ -7739,7 +7739,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>G19</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -7749,11 +7749,11 @@
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>G19</t>
         </is>
       </c>
       <c r="E296" t="n">
-        <v>180.4012122961466</v>
+        <v>125.0203158013177</v>
       </c>
     </row>
     <row r="297">
@@ -7764,7 +7764,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>H19</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -7774,11 +7774,11 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>H19</t>
         </is>
       </c>
       <c r="E297" t="n">
-        <v>227.4346883386654</v>
+        <v>170.2262874781543</v>
       </c>
     </row>
     <row r="298">
@@ -7789,7 +7789,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>I19</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -7799,11 +7799,11 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>I19</t>
         </is>
       </c>
       <c r="E298" t="n">
-        <v>168.2217835994976</v>
+        <v>158.9943080037735</v>
       </c>
     </row>
     <row r="299">
@@ -7814,7 +7814,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>P5</t>
+          <t>J19</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -7824,11 +7824,11 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>P5</t>
+          <t>J19</t>
         </is>
       </c>
       <c r="E299" t="n">
-        <v>274.0702167895415</v>
+        <v>170.9927841045108</v>
       </c>
     </row>
     <row r="300">
@@ -7839,7 +7839,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>K19</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -7849,11 +7849,11 @@
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>K19</t>
         </is>
       </c>
       <c r="E300" t="n">
-        <v>155.0980736819249</v>
+        <v>190.7838673161797</v>
       </c>
     </row>
     <row r="301">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>L19</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -7874,11 +7874,11 @@
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>L19</t>
         </is>
       </c>
       <c r="E301" t="n">
-        <v>1602.906603975209</v>
+        <v>188.4351092295516</v>
       </c>
     </row>
     <row r="302">
@@ -7889,7 +7889,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>M19</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -7899,11 +7899,11 @@
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>M19</t>
         </is>
       </c>
       <c r="E302" t="n">
-        <v>148.2792196558934</v>
+        <v>156.5263668664986</v>
       </c>
     </row>
     <row r="303">
@@ -7914,7 +7914,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>N19</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -7924,11 +7924,11 @@
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>N19</t>
         </is>
       </c>
       <c r="E303" t="n">
-        <v>160.1571675671059</v>
+        <v>274.5593322717039</v>
       </c>
     </row>
     <row r="304">
@@ -7939,7 +7939,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>P10</t>
+          <t>O19</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -7949,11 +7949,11 @@
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>P10</t>
+          <t>O19</t>
         </is>
       </c>
       <c r="E304" t="n">
-        <v>224.6753441277354</v>
+        <v>161.0945840000859</v>
       </c>
     </row>
     <row r="305">
@@ -7964,7 +7964,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>P11</t>
+          <t>P19</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -7974,11 +7974,11 @@
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>P11</t>
+          <t>P19</t>
         </is>
       </c>
       <c r="E305" t="n">
-        <v>258.7634556996964</v>
+        <v>165.6717159724101</v>
       </c>
     </row>
     <row r="306">
@@ -7989,7 +7989,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>P12</t>
+          <t>A20</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -7999,11 +7999,11 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>P12</t>
+          <t>A20</t>
         </is>
       </c>
       <c r="E306" t="n">
-        <v>177.3406003570457</v>
+        <v>150.8705229172324</v>
       </c>
     </row>
     <row r="307">
@@ -8014,7 +8014,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>P13</t>
+          <t>B20</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -8024,11 +8024,11 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>P13</t>
+          <t>B20</t>
         </is>
       </c>
       <c r="E307" t="n">
-        <v>210.8133177799952</v>
+        <v>215.1447565637079</v>
       </c>
     </row>
     <row r="308">
@@ -8039,7 +8039,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>P14</t>
+          <t>C20</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -8049,11 +8049,11 @@
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>P14</t>
+          <t>C20</t>
         </is>
       </c>
       <c r="E308" t="n">
-        <v>152.2912214263596</v>
+        <v>173.2241636159967</v>
       </c>
     </row>
     <row r="309">
@@ -8064,7 +8064,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>P15</t>
+          <t>D20</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -8074,11 +8074,11 @@
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>P15</t>
+          <t>D20</t>
         </is>
       </c>
       <c r="E309" t="n">
-        <v>177.8241437767477</v>
+        <v>251.1174727537542</v>
       </c>
     </row>
     <row r="310">
@@ -8089,7 +8089,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>P16</t>
+          <t>E20</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -8099,11 +8099,11 @@
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>P16</t>
+          <t>E20</t>
         </is>
       </c>
       <c r="E310" t="n">
-        <v>162.7948621941492</v>
+        <v>268.0342369065275</v>
       </c>
     </row>
     <row r="311">
@@ -8114,7 +8114,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>P17</t>
+          <t>F20</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -8124,11 +8124,11 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>P17</t>
+          <t>F20</t>
         </is>
       </c>
       <c r="E311" t="n">
-        <v>130.9780568095492</v>
+        <v>171.4716843091977</v>
       </c>
     </row>
     <row r="312">
@@ -8139,7 +8139,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>P18</t>
+          <t>G20</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -8149,11 +8149,11 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>P18</t>
+          <t>G20</t>
         </is>
       </c>
       <c r="E312" t="n">
-        <v>169.1894696474091</v>
+        <v>210.6283042315226</v>
       </c>
     </row>
     <row r="313">
@@ -8164,7 +8164,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>P19</t>
+          <t>H20</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -8174,11 +8174,11 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>P19</t>
+          <t>H20</t>
         </is>
       </c>
       <c r="E313" t="n">
-        <v>165.6717159724101</v>
+        <v>177.9771121433784</v>
       </c>
     </row>
     <row r="314">
@@ -8214,7 +8214,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -8224,11 +8224,11 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="E315" t="n">
-        <v>217.2716474984791</v>
+        <v>173.9473287488549</v>
       </c>
     </row>
     <row r="316">
@@ -8239,7 +8239,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -8249,11 +8249,11 @@
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="E316" t="n">
-        <v>220.3516812833282</v>
+        <v>181.3499691705053</v>
       </c>
     </row>
     <row r="317">
@@ -8264,7 +8264,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>A4</t>
+          <t>D1</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -8274,11 +8274,11 @@
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>A4</t>
+          <t>D1</t>
         </is>
       </c>
       <c r="E317" t="n">
-        <v>8228.19528250137</v>
+        <v>160.1785456855908</v>
       </c>
     </row>
     <row r="318">
@@ -8289,7 +8289,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>E1</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -8299,11 +8299,11 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>E1</t>
         </is>
       </c>
       <c r="E318" t="n">
-        <v>1199.232491205629</v>
+        <v>142.6323271415055</v>
       </c>
     </row>
     <row r="319">
@@ -8314,7 +8314,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>A6</t>
+          <t>F1</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -8324,11 +8324,11 @@
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>A6</t>
+          <t>F1</t>
         </is>
       </c>
       <c r="E319" t="n">
-        <v>266.6998559820778</v>
+        <v>160.6374092398638</v>
       </c>
     </row>
     <row r="320">
@@ -8339,7 +8339,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -8349,11 +8349,11 @@
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="E320" t="n">
-        <v>173.9473287488549</v>
+        <v>279.8872987143844</v>
       </c>
     </row>
     <row r="321">
@@ -8364,7 +8364,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>H1</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -8374,11 +8374,11 @@
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>H1</t>
         </is>
       </c>
       <c r="E321" t="n">
-        <v>327.2037170342255</v>
+        <v>165.7220509761028</v>
       </c>
     </row>
     <row r="322">
@@ -8389,7 +8389,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>B3</t>
+          <t>I1</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -8399,11 +8399,11 @@
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>B3</t>
+          <t>I1</t>
         </is>
       </c>
       <c r="E322" t="n">
-        <v>184.807584503268</v>
+        <v>148.8826358181845</v>
       </c>
     </row>
     <row r="323">
@@ -8414,7 +8414,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>B4</t>
+          <t>J1</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -8424,11 +8424,11 @@
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>B4</t>
+          <t>J1</t>
         </is>
       </c>
       <c r="E323" t="n">
-        <v>180.9234332030684</v>
+        <v>200.8018687960589</v>
       </c>
     </row>
     <row r="324">
@@ -8439,7 +8439,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>B5</t>
+          <t>K1</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -8449,11 +8449,11 @@
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>B5</t>
+          <t>K1</t>
         </is>
       </c>
       <c r="E324" t="n">
-        <v>293.3096078450543</v>
+        <v>127.6400211031501</v>
       </c>
     </row>
     <row r="325">
@@ -8464,7 +8464,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>B6</t>
+          <t>A2</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -8474,11 +8474,11 @@
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>B6</t>
+          <t>A2</t>
         </is>
       </c>
       <c r="E325" t="n">
-        <v>242.1287963777532</v>
+        <v>217.2716474984791</v>
       </c>
     </row>
     <row r="326">
@@ -8489,7 +8489,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -8499,11 +8499,11 @@
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="E326" t="n">
-        <v>181.3499691705053</v>
+        <v>327.2037170342255</v>
       </c>
     </row>
     <row r="327">
@@ -8539,7 +8539,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>D2</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -8549,11 +8549,11 @@
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>D2</t>
         </is>
       </c>
       <c r="E328" t="n">
-        <v>154.2249937024794</v>
+        <v>168.3208869388602</v>
       </c>
     </row>
     <row r="329">
@@ -8564,7 +8564,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>C4</t>
+          <t>E2</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -8574,11 +8574,11 @@
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>C4</t>
+          <t>E2</t>
         </is>
       </c>
       <c r="E329" t="n">
-        <v>181.4980851952012</v>
+        <v>131.5725995675647</v>
       </c>
     </row>
     <row r="330">
@@ -8589,7 +8589,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>C5</t>
+          <t>F2</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -8599,11 +8599,11 @@
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>C5</t>
+          <t>F2</t>
         </is>
       </c>
       <c r="E330" t="n">
-        <v>144.3654177453972</v>
+        <v>282.8560922488002</v>
       </c>
     </row>
     <row r="331">
@@ -8614,7 +8614,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>C6</t>
+          <t>G2</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -8624,11 +8624,11 @@
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>C6</t>
+          <t>G2</t>
         </is>
       </c>
       <c r="E331" t="n">
-        <v>255.393049903802</v>
+        <v>1890.835749401235</v>
       </c>
     </row>
     <row r="332">
@@ -8639,7 +8639,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>D1</t>
+          <t>H2</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -8649,11 +8649,11 @@
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>D1</t>
+          <t>H2</t>
         </is>
       </c>
       <c r="E332" t="n">
-        <v>160.1785456855908</v>
+        <v>270.1948104583404</v>
       </c>
     </row>
     <row r="333">
@@ -8664,7 +8664,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>D2</t>
+          <t>I2</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -8674,11 +8674,11 @@
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>D2</t>
+          <t>I2</t>
         </is>
       </c>
       <c r="E333" t="n">
-        <v>168.3208869388602</v>
+        <v>149.7035868979421</v>
       </c>
     </row>
     <row r="334">
@@ -8689,7 +8689,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>D3</t>
+          <t>J2</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -8699,11 +8699,11 @@
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>D3</t>
+          <t>J2</t>
         </is>
       </c>
       <c r="E334" t="n">
-        <v>166.4853825834092</v>
+        <v>161.3718761094316</v>
       </c>
     </row>
     <row r="335">
@@ -8714,7 +8714,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>D4</t>
+          <t>K2</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -8724,11 +8724,11 @@
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>D4</t>
+          <t>K2</t>
         </is>
       </c>
       <c r="E335" t="n">
-        <v>153.7468097536976</v>
+        <v>193.803457453681</v>
       </c>
     </row>
     <row r="336">
@@ -8739,7 +8739,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>D5</t>
+          <t>A3</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -8749,11 +8749,11 @@
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>D5</t>
+          <t>A3</t>
         </is>
       </c>
       <c r="E336" t="n">
-        <v>173.4094022577904</v>
+        <v>220.3516812833282</v>
       </c>
     </row>
     <row r="337">
@@ -8764,7 +8764,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>D6</t>
+          <t>B3</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -8774,11 +8774,11 @@
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>D6</t>
+          <t>B3</t>
         </is>
       </c>
       <c r="E337" t="n">
-        <v>273.9951228868126</v>
+        <v>184.807584503268</v>
       </c>
     </row>
     <row r="338">
@@ -8789,7 +8789,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>E1</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -8799,11 +8799,11 @@
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>E1</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="E338" t="n">
-        <v>142.6323271415055</v>
+        <v>154.2249937024794</v>
       </c>
     </row>
     <row r="339">
@@ -8814,7 +8814,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>E2</t>
+          <t>D3</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -8824,11 +8824,11 @@
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>E2</t>
+          <t>D3</t>
         </is>
       </c>
       <c r="E339" t="n">
-        <v>131.5725995675647</v>
+        <v>166.4853825834092</v>
       </c>
     </row>
     <row r="340">
@@ -8864,7 +8864,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>E4</t>
+          <t>F3</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -8874,11 +8874,11 @@
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>E4</t>
+          <t>F3</t>
         </is>
       </c>
       <c r="E341" t="n">
-        <v>315.4540961714388</v>
+        <v>143.5846383581575</v>
       </c>
     </row>
     <row r="342">
@@ -8889,7 +8889,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>E5</t>
+          <t>G3</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -8899,11 +8899,11 @@
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>E5</t>
+          <t>G3</t>
         </is>
       </c>
       <c r="E342" t="n">
-        <v>161.0686367150588</v>
+        <v>222.0396562826121</v>
       </c>
     </row>
     <row r="343">
@@ -8914,7 +8914,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>E6</t>
+          <t>H3</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -8924,11 +8924,11 @@
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>E6</t>
+          <t>H3</t>
         </is>
       </c>
       <c r="E343" t="n">
-        <v>229.3209805765129</v>
+        <v>153.2167864311214</v>
       </c>
     </row>
     <row r="344">
@@ -8939,7 +8939,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>F1</t>
+          <t>I3</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -8949,11 +8949,11 @@
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>F1</t>
+          <t>I3</t>
         </is>
       </c>
       <c r="E344" t="n">
-        <v>160.6374092398638</v>
+        <v>195.5531220055928</v>
       </c>
     </row>
     <row r="345">
@@ -8964,7 +8964,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>F2</t>
+          <t>J3</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -8974,11 +8974,11 @@
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>F2</t>
+          <t>J3</t>
         </is>
       </c>
       <c r="E345" t="n">
-        <v>282.8560922488002</v>
+        <v>122.0003172008247</v>
       </c>
     </row>
     <row r="346">
@@ -8989,7 +8989,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>F3</t>
+          <t>K3</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -8999,11 +8999,11 @@
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>F3</t>
+          <t>K3</t>
         </is>
       </c>
       <c r="E346" t="n">
-        <v>143.5846383581575</v>
+        <v>197.0818743800133</v>
       </c>
     </row>
     <row r="347">
@@ -9014,7 +9014,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>F4</t>
+          <t>A4</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -9024,11 +9024,11 @@
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>F4</t>
+          <t>A4</t>
         </is>
       </c>
       <c r="E347" t="n">
-        <v>184.206163538232</v>
+        <v>8228.19528250137</v>
       </c>
     </row>
     <row r="348">
@@ -9039,7 +9039,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>F5</t>
+          <t>B4</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -9049,11 +9049,11 @@
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>F5</t>
+          <t>B4</t>
         </is>
       </c>
       <c r="E348" t="n">
-        <v>561.1567310749894</v>
+        <v>180.9234332030684</v>
       </c>
     </row>
     <row r="349">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>F6</t>
+          <t>C4</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -9074,11 +9074,11 @@
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>F6</t>
+          <t>C4</t>
         </is>
       </c>
       <c r="E349" t="n">
-        <v>2951.013181192209</v>
+        <v>181.4980851952012</v>
       </c>
     </row>
     <row r="350">
@@ -9089,7 +9089,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>G1</t>
+          <t>D4</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -9099,11 +9099,11 @@
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>G1</t>
+          <t>D4</t>
         </is>
       </c>
       <c r="E350" t="n">
-        <v>279.8872987143844</v>
+        <v>153.7468097536976</v>
       </c>
     </row>
     <row r="351">
@@ -9114,7 +9114,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>G2</t>
+          <t>E4</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -9124,11 +9124,11 @@
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>G2</t>
+          <t>E4</t>
         </is>
       </c>
       <c r="E351" t="n">
-        <v>1890.835749401235</v>
+        <v>315.4540961714388</v>
       </c>
     </row>
     <row r="352">
@@ -9139,7 +9139,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>G3</t>
+          <t>F4</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
@@ -9149,11 +9149,11 @@
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>G3</t>
+          <t>F4</t>
         </is>
       </c>
       <c r="E352" t="n">
-        <v>222.0396562826121</v>
+        <v>184.206163538232</v>
       </c>
     </row>
     <row r="353">
@@ -9189,7 +9189,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>G5</t>
+          <t>H4</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -9199,11 +9199,11 @@
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>G5</t>
+          <t>H4</t>
         </is>
       </c>
       <c r="E354" t="n">
-        <v>214.3071450002143</v>
+        <v>173.5900151023313</v>
       </c>
     </row>
     <row r="355">
@@ -9214,7 +9214,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>G6</t>
+          <t>I4</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -9224,11 +9224,11 @@
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>G6</t>
+          <t>I4</t>
         </is>
       </c>
       <c r="E355" t="n">
-        <v>130.8438117419237</v>
+        <v>203.0786726777954</v>
       </c>
     </row>
     <row r="356">
@@ -9239,7 +9239,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>H1</t>
+          <t>J4</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -9249,11 +9249,11 @@
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>H1</t>
+          <t>J4</t>
         </is>
       </c>
       <c r="E356" t="n">
-        <v>165.7220509761028</v>
+        <v>5829.77069568597</v>
       </c>
     </row>
     <row r="357">
@@ -9264,7 +9264,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>H2</t>
+          <t>K4</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -9274,11 +9274,11 @@
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>H2</t>
+          <t>K4</t>
         </is>
       </c>
       <c r="E357" t="n">
-        <v>270.1948104583404</v>
+        <v>164.2386716376238</v>
       </c>
     </row>
     <row r="358">
@@ -9289,7 +9289,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>H3</t>
+          <t>A5</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -9299,11 +9299,11 @@
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>H3</t>
+          <t>A5</t>
         </is>
       </c>
       <c r="E358" t="n">
-        <v>153.2167864311214</v>
+        <v>1199.232491205629</v>
       </c>
     </row>
     <row r="359">
@@ -9314,7 +9314,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>H4</t>
+          <t>B5</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -9324,11 +9324,11 @@
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>H4</t>
+          <t>B5</t>
         </is>
       </c>
       <c r="E359" t="n">
-        <v>173.5900151023313</v>
+        <v>293.3096078450543</v>
       </c>
     </row>
     <row r="360">
@@ -9339,7 +9339,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>H5</t>
+          <t>C5</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -9349,11 +9349,11 @@
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>H5</t>
+          <t>C5</t>
         </is>
       </c>
       <c r="E360" t="n">
-        <v>171.1537474112995</v>
+        <v>144.3654177453972</v>
       </c>
     </row>
     <row r="361">
@@ -9364,7 +9364,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>H6</t>
+          <t>D5</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -9374,11 +9374,11 @@
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>H6</t>
+          <t>D5</t>
         </is>
       </c>
       <c r="E361" t="n">
-        <v>210.9244820046263</v>
+        <v>173.4094022577904</v>
       </c>
     </row>
     <row r="362">
@@ -9389,7 +9389,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>I1</t>
+          <t>E5</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -9399,11 +9399,11 @@
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>I1</t>
+          <t>E5</t>
         </is>
       </c>
       <c r="E362" t="n">
-        <v>148.8826358181845</v>
+        <v>161.0686367150588</v>
       </c>
     </row>
     <row r="363">
@@ -9414,7 +9414,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>I2</t>
+          <t>F5</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -9424,11 +9424,11 @@
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>I2</t>
+          <t>F5</t>
         </is>
       </c>
       <c r="E363" t="n">
-        <v>149.7035868979421</v>
+        <v>561.1567310749894</v>
       </c>
     </row>
     <row r="364">
@@ -9439,7 +9439,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>I3</t>
+          <t>G5</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -9449,11 +9449,11 @@
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>I3</t>
+          <t>G5</t>
         </is>
       </c>
       <c r="E364" t="n">
-        <v>195.5531220055928</v>
+        <v>214.3071450002143</v>
       </c>
     </row>
     <row r="365">
@@ -9464,7 +9464,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>I4</t>
+          <t>H5</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -9474,11 +9474,11 @@
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>I4</t>
+          <t>H5</t>
         </is>
       </c>
       <c r="E365" t="n">
-        <v>203.0786726777954</v>
+        <v>171.1537474112995</v>
       </c>
     </row>
     <row r="366">
@@ -9514,7 +9514,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>I6</t>
+          <t>J5</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
@@ -9524,11 +9524,11 @@
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>I6</t>
+          <t>J5</t>
         </is>
       </c>
       <c r="E367" t="n">
-        <v>146.5802820204626</v>
+        <v>282.6828486892938</v>
       </c>
     </row>
     <row r="368">
@@ -9539,7 +9539,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>J1</t>
+          <t>K5</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
@@ -9549,11 +9549,11 @@
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>J1</t>
+          <t>K5</t>
         </is>
       </c>
       <c r="E368" t="n">
-        <v>200.8018687960589</v>
+        <v>273.7451068062159</v>
       </c>
     </row>
     <row r="369">
@@ -9564,7 +9564,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>J2</t>
+          <t>A6</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
@@ -9574,11 +9574,11 @@
       </c>
       <c r="D369" t="inlineStr">
         <is>
-          <t>J2</t>
+          <t>A6</t>
         </is>
       </c>
       <c r="E369" t="n">
-        <v>161.3718761094316</v>
+        <v>266.6998559820778</v>
       </c>
     </row>
     <row r="370">
@@ -9589,7 +9589,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>J3</t>
+          <t>B6</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
@@ -9599,11 +9599,11 @@
       </c>
       <c r="D370" t="inlineStr">
         <is>
-          <t>J3</t>
+          <t>B6</t>
         </is>
       </c>
       <c r="E370" t="n">
-        <v>122.0003172008247</v>
+        <v>242.1287963777532</v>
       </c>
     </row>
     <row r="371">
@@ -9614,7 +9614,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>J4</t>
+          <t>C6</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -9624,11 +9624,11 @@
       </c>
       <c r="D371" t="inlineStr">
         <is>
-          <t>J4</t>
+          <t>C6</t>
         </is>
       </c>
       <c r="E371" t="n">
-        <v>5829.77069568597</v>
+        <v>255.393049903802</v>
       </c>
     </row>
     <row r="372">
@@ -9639,7 +9639,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>J5</t>
+          <t>D6</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -9649,11 +9649,11 @@
       </c>
       <c r="D372" t="inlineStr">
         <is>
-          <t>J5</t>
+          <t>D6</t>
         </is>
       </c>
       <c r="E372" t="n">
-        <v>282.6828486892938</v>
+        <v>273.9951228868126</v>
       </c>
     </row>
     <row r="373">
@@ -9664,7 +9664,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>K1</t>
+          <t>E6</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
@@ -9674,11 +9674,11 @@
       </c>
       <c r="D373" t="inlineStr">
         <is>
-          <t>K1</t>
+          <t>E6</t>
         </is>
       </c>
       <c r="E373" t="n">
-        <v>127.6400211031501</v>
+        <v>229.3209805765129</v>
       </c>
     </row>
     <row r="374">
@@ -9689,7 +9689,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>K2</t>
+          <t>F6</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
@@ -9699,11 +9699,11 @@
       </c>
       <c r="D374" t="inlineStr">
         <is>
-          <t>K2</t>
+          <t>F6</t>
         </is>
       </c>
       <c r="E374" t="n">
-        <v>193.803457453681</v>
+        <v>2951.013181192209</v>
       </c>
     </row>
     <row r="375">
@@ -9714,7 +9714,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>K3</t>
+          <t>G6</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -9724,11 +9724,11 @@
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>K3</t>
+          <t>G6</t>
         </is>
       </c>
       <c r="E375" t="n">
-        <v>197.0818743800133</v>
+        <v>130.8438117419237</v>
       </c>
     </row>
     <row r="376">
@@ -9739,7 +9739,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>K4</t>
+          <t>H6</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
@@ -9749,11 +9749,11 @@
       </c>
       <c r="D376" t="inlineStr">
         <is>
-          <t>K4</t>
+          <t>H6</t>
         </is>
       </c>
       <c r="E376" t="n">
-        <v>164.2386716376238</v>
+        <v>210.9244820046263</v>
       </c>
     </row>
     <row r="377">
@@ -9764,7 +9764,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>K5</t>
+          <t>I6</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
@@ -9774,11 +9774,11 @@
       </c>
       <c r="D377" t="inlineStr">
         <is>
-          <t>K5</t>
+          <t>I6</t>
         </is>
       </c>
       <c r="E377" t="n">
-        <v>273.7451068062159</v>
+        <v>146.5802820204626</v>
       </c>
     </row>
   </sheetData>
